--- a/files/Plan.xlsx
+++ b/files/Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharmProject\Ogorod\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9DE733-9411-41FA-B78C-5870F71F7E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38E86E2-F93E-4B99-BFB2-D35B4015E40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="386">
   <si>
     <t>Дата</t>
   </si>
@@ -849,199 +849,7 @@
 Не забываем полоть сорняки между рядами, пока листья там не сомкнутся (раза 2-3).  </t>
   </si>
   <si>
-    <t>img/ogurzi_6.jpg</t>
-  </si>
-  <si>
     <t>09:00:00</t>
-  </si>
-  <si>
-    <t>img/ogurzi_7.jpg</t>
-  </si>
-  <si>
-    <t>img/perez.jpg</t>
-  </si>
-  <si>
-    <t>img/baklazan.jpg</t>
-  </si>
-  <si>
-    <t>img/tomat.jpg</t>
-  </si>
-  <si>
-    <t>img/selderei.png</t>
-  </si>
-  <si>
-    <t>img/vremena_goda/aprel.jpg</t>
-  </si>
-  <si>
-    <t>img/cabbage_3.jpg</t>
-  </si>
-  <si>
-    <t>img/semena_kapusta.jpg</t>
-  </si>
-  <si>
-    <t>img/kapusta_rassada.jpg</t>
-  </si>
-  <si>
-    <t>img/rassada_1.jpg</t>
-  </si>
-  <si>
-    <t>img/kapusta.jpg</t>
-  </si>
-  <si>
-    <t>img/vremena_goda/may.jpg</t>
-  </si>
-  <si>
-    <t>img/rassada_2.jpg</t>
-  </si>
-  <si>
-    <t>img/rassada_3.jpg</t>
-  </si>
-  <si>
-    <t>img/ovoshti.jpg</t>
-  </si>
-  <si>
-    <t>img/kapusta_2.jpg</t>
-  </si>
-  <si>
-    <t>img/kapusta_3.jpg</t>
-  </si>
-  <si>
-    <t>img/kapusta_4.jpg</t>
-  </si>
-  <si>
-    <t>img/svekla.jpg</t>
-  </si>
-  <si>
-    <t>img/svekla_2.jpg</t>
-  </si>
-  <si>
-    <t>img/svekla_3.jpg</t>
-  </si>
-  <si>
-    <t>img/svekla_4.jpg</t>
-  </si>
-  <si>
-    <t>img/svekla_7.jpg</t>
-  </si>
-  <si>
-    <t>img/svekla_5.jpg</t>
-  </si>
-  <si>
-    <t>img/svekla_6.jpg</t>
-  </si>
-  <si>
-    <t>img/svekla_8.jpg</t>
-  </si>
-  <si>
-    <t>img/svekla_9.jpg</t>
-  </si>
-  <si>
-    <t>img/mai.jpg</t>
-  </si>
-  <si>
-    <t>img/ogurzi.jpg</t>
-  </si>
-  <si>
-    <t>img/ogurzi_2.jpg</t>
-  </si>
-  <si>
-    <t>img/ogurzi_3.jpg</t>
-  </si>
-  <si>
-    <t>img/ogurzi_4.jpg</t>
-  </si>
-  <si>
-    <t>img/ogurzi_5.jpg</t>
-  </si>
-  <si>
-    <t>img/kabachki.jpg</t>
-  </si>
-  <si>
-    <t>img/kabachki_2.jpg</t>
-  </si>
-  <si>
-    <t>img/kabachki_3.jpg</t>
-  </si>
-  <si>
-    <t>img/kabachki_4.jpg</t>
-  </si>
-  <si>
-    <t>img/kabachki_5.jpg</t>
-  </si>
-  <si>
-    <t>img/morkov_1.jpg</t>
-  </si>
-  <si>
-    <t>img/luk_1.jpg</t>
-  </si>
-  <si>
-    <t>img/ovoshti_2.jpg</t>
-  </si>
-  <si>
-    <t>img/ovoshti_3.jpg</t>
-  </si>
-  <si>
-    <t>img/ogurzi_8.jpg</t>
-  </si>
-  <si>
-    <t>img/ogurzi_9.jpg</t>
-  </si>
-  <si>
-    <t>img/ogurzi_10.jpg</t>
-  </si>
-  <si>
-    <t>img/ogurzi_11.jpg</t>
-  </si>
-  <si>
-    <t>img/svekla_10.jpg</t>
-  </si>
-  <si>
-    <t>img/tomat_2.jpg</t>
-  </si>
-  <si>
-    <t>img/tomat_3.jpg</t>
-  </si>
-  <si>
-    <t>img/tomat_4.jpg</t>
-  </si>
-  <si>
-    <t>img/tomat_5.jpg</t>
-  </si>
-  <si>
-    <t>img/kapusta_5.jpg</t>
-  </si>
-  <si>
-    <t>img/tomat_6.jpg</t>
-  </si>
-  <si>
-    <t>img/tomat_7.jpg</t>
-  </si>
-  <si>
-    <t>img/ogurzi_12.jpg</t>
-  </si>
-  <si>
-    <t>img/kapusta_6.jpg</t>
-  </si>
-  <si>
-    <t>img/selderei_1.jpg</t>
-  </si>
-  <si>
-    <t>img/ovoshti_4.jpg</t>
-  </si>
-  <si>
-    <t>img/kabachki_6.jpg</t>
-  </si>
-  <si>
-    <t>img/tomat_8.jpg</t>
-  </si>
-  <si>
-    <t>img/ogurzi_13.jpg</t>
-  </si>
-  <si>
-    <t>img/ovoshti_5.jpg</t>
-  </si>
-  <si>
-    <t>img/kabachki_7.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">С 10 по 20 мая оптимальный период посева семян свеклы в открытый грунт. 
@@ -1057,9 +865,6 @@
 Томаты в теплице поливают до цветения 1 раз в 4-5 дней (первый раз через дней 10 после высадки в теплицу), во время цветения – необильно 1 раз в 2 дня.</t>
   </si>
   <si>
-    <t>img/svekla_11.jpg</t>
-  </si>
-  <si>
     <t>13:00:00</t>
   </si>
   <si>
@@ -1078,12 +883,6 @@
 Копаем почву на грядке (можно внести удобрения). Делаем лунки (между растениями 30 см, между рядами – 40 см). Поливаем лунки и рассаду. Сажаем. Засыпаем лунки. </t>
   </si>
   <si>
-    <t>img/perez_2.jpg</t>
-  </si>
-  <si>
-    <t>img/perez_3.jpg</t>
-  </si>
-  <si>
     <t>Ухаживаем за сладким перцем на грядках.
 Первый раз растения поливают через 4 дня после высадки. В последствии – раз в неделю до появления плодов. 
 Подкармливать перец можно трижды за сезон. 
@@ -1091,9 +890,6 @@
 2.	 в период цветения и завязи (в ведре воды – 20 гр аммиачной селитры, 70 гр суперфосфата, 250 гр древесной золы или на 10 литров воды – 10 гр аммиачной селитры, 25 гр суперфосфата, 25 гр сернокислого калия)</t>
   </si>
   <si>
-    <t>img/perez_4.jpg</t>
-  </si>
-  <si>
     <t>01-06-2022</t>
   </si>
   <si>
@@ -4201,9 +3997,6 @@
     <t>23-06-2022</t>
   </si>
   <si>
-    <t>img/selderei.jpg</t>
-  </si>
-  <si>
     <t>24-06-2022</t>
   </si>
   <si>
@@ -4957,9 +4750,6 @@
     <t>30-06-2022</t>
   </si>
   <si>
-    <t>img/morkov_2.jpg</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -5080,10 +4870,217 @@
     <t>01-07-2022</t>
   </si>
   <si>
-    <t>img/morkov_3.jpg</t>
-  </si>
-  <si>
-    <t>10:12:00</t>
+    <t>Telegram_bot_ogorod/img/perez.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/baklazan.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/tomat.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/selderei.png</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/vremena_goda/aprel.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/cabbage_3.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/semena_kapusta.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/kapusta_rassada.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/rassada_1.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/kapusta.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/vremena_goda/may.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/rassada_2.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/rassada_3.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/ovoshti.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/kapusta_2.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/kapusta_3.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/kapusta_4.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/svekla.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/svekla_2.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/svekla_3.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/svekla_4.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/svekla_7.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/svekla_5.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/svekla_6.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/svekla_8.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/svekla_9.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/mai.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/ogurzi.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/ogurzi_2.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/ogurzi_3.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/ogurzi_4.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/ogurzi_5.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/ogurzi_6.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/ogurzi_7.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/kabachki.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/kabachki_2.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/kabachki_3.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/kabachki_4.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/kabachki_5.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/morkov_1.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/luk_1.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/ovoshti_2.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/ovoshti_3.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/ogurzi_8.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/ogurzi_9.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/ogurzi_10.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/ogurzi_11.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/svekla_10.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/svekla_11.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/tomat_3.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/tomat_4.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/tomat_5.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/kapusta_5.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/tomat_6.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/tomat_7.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/ogurzi_12.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/kapusta_6.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/selderei_1.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/ovoshti_4.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/kabachki_6.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/tomat_8.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/ogurzi_13.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/perez_2.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/kabachki_7.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/perez_3.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/ovoshti_5.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/perez_4.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/tomat_2.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/selderei.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/morkov_2.jpg</t>
+  </si>
+  <si>
+    <t>Telegram_bot_ogorod/img/morkov_3.jpg</t>
   </si>
 </sst>
 </file>
@@ -5548,7 +5545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5738,6 +5735,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -6022,8 +6022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B171" sqref="B171"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="S45" sqref="S45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6421,10 +6421,10 @@
         <v>80</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
+      </c>
+      <c r="C48" s="65" t="s">
+        <v>315</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>165</v>
@@ -6443,10 +6443,10 @@
         <v>82</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>237</v>
+        <v>316</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>127</v>
@@ -6465,10 +6465,10 @@
         <v>84</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>238</v>
+        <v>317</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>168</v>
@@ -6495,10 +6495,10 @@
         <v>87</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>238</v>
+        <v>317</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>169</v>
@@ -6509,10 +6509,10 @@
         <v>88</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>236</v>
+        <v>315</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>166</v>
@@ -6523,10 +6523,10 @@
         <v>89</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>237</v>
+        <v>316</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>124</v>
@@ -6537,10 +6537,10 @@
         <v>90</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>237</v>
+        <v>316</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>127</v>
@@ -6559,10 +6559,10 @@
         <v>92</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>237</v>
+        <v>316</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>125</v>
@@ -6589,10 +6589,10 @@
         <v>95</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>236</v>
+        <v>315</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>167</v>
@@ -6603,10 +6603,10 @@
         <v>96</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>239</v>
+        <v>318</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>161</v>
@@ -6617,10 +6617,10 @@
         <v>97</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>237</v>
+        <v>316</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>126</v>
@@ -6631,10 +6631,10 @@
         <v>98</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>238</v>
+        <v>317</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>170</v>
@@ -6653,10 +6653,10 @@
         <v>100</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>236</v>
+        <v>315</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>167</v>
@@ -6675,10 +6675,10 @@
         <v>102</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>237</v>
+        <v>316</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>126</v>
@@ -6697,10 +6697,10 @@
         <v>104</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>239</v>
+        <v>318</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>162</v>
@@ -6711,10 +6711,10 @@
         <v>105</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>236</v>
+        <v>315</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>167</v>
@@ -6725,10 +6725,10 @@
         <v>106</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>237</v>
+        <v>316</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>126</v>
@@ -6747,10 +6747,10 @@
         <v>108</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>236</v>
+        <v>315</v>
       </c>
       <c r="D76" s="11" t="s">
         <v>167</v>
@@ -6769,10 +6769,10 @@
         <v>110</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>238</v>
+        <v>317</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>171</v>
@@ -6887,10 +6887,10 @@
         <v>164</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>240</v>
+        <v>319</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>163</v>
@@ -6901,10 +6901,10 @@
         <v>33</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>241</v>
+        <v>320</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>181</v>
@@ -6915,10 +6915,10 @@
         <v>33</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>242</v>
+        <v>321</v>
       </c>
       <c r="D94" s="12" t="s">
         <v>177</v>
@@ -6929,10 +6929,10 @@
         <v>32</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>243</v>
+        <v>322</v>
       </c>
       <c r="D95" s="11" t="s">
         <v>175</v>
@@ -6943,10 +6943,10 @@
         <v>4</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>244</v>
+        <v>323</v>
       </c>
       <c r="D96" s="12" t="s">
         <v>176</v>
@@ -6957,10 +6957,10 @@
         <v>5</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>245</v>
+        <v>324</v>
       </c>
       <c r="D97" s="14" t="s">
         <v>186</v>
@@ -6971,10 +6971,10 @@
         <v>6</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>246</v>
+        <v>325</v>
       </c>
       <c r="D98" s="14" t="s">
         <v>174</v>
@@ -6985,10 +6985,10 @@
         <v>7</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>241</v>
+        <v>320</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>180</v>
@@ -6999,10 +6999,10 @@
         <v>8</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>240</v>
+        <v>319</v>
       </c>
       <c r="D100" s="10" t="s">
         <v>163</v>
@@ -7013,10 +7013,10 @@
         <v>9</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>247</v>
+        <v>326</v>
       </c>
       <c r="D101" s="12" t="s">
         <v>178</v>
@@ -7027,10 +7027,10 @@
         <v>10</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>248</v>
+        <v>327</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>179</v>
@@ -7041,10 +7041,10 @@
         <v>11</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>249</v>
+        <v>328</v>
       </c>
       <c r="D103" s="13" t="s">
         <v>185</v>
@@ -7055,10 +7055,10 @@
         <v>12</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>241</v>
+        <v>320</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>184</v>
@@ -7069,10 +7069,10 @@
         <v>13</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>250</v>
+        <v>329</v>
       </c>
       <c r="D105" s="15" t="s">
         <v>187</v>
@@ -7083,10 +7083,10 @@
         <v>14</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>251</v>
+        <v>330</v>
       </c>
       <c r="D106" s="15" t="s">
         <v>188</v>
@@ -7097,10 +7097,10 @@
         <v>15</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>252</v>
+        <v>331</v>
       </c>
       <c r="D107" s="15" t="s">
         <v>189</v>
@@ -7111,10 +7111,10 @@
         <v>16</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>253</v>
+        <v>332</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>159</v>
@@ -7125,10 +7125,10 @@
         <v>16</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>254</v>
+        <v>333</v>
       </c>
       <c r="D109" s="16" t="s">
         <v>191</v>
@@ -7139,10 +7139,10 @@
         <v>17</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>255</v>
+        <v>334</v>
       </c>
       <c r="D110" s="16" t="s">
         <v>190</v>
@@ -7153,10 +7153,10 @@
         <v>18</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>256</v>
+        <v>335</v>
       </c>
       <c r="D111" s="17" t="s">
         <v>192</v>
@@ -7167,10 +7167,10 @@
         <v>18</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>241</v>
+        <v>320</v>
       </c>
       <c r="D112" s="12" t="s">
         <v>182</v>
@@ -7181,10 +7181,10 @@
         <v>18</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>302</v>
+        <v>237</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>257</v>
+        <v>336</v>
       </c>
       <c r="D113" s="17" t="s">
         <v>194</v>
@@ -7195,10 +7195,10 @@
         <v>19</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>258</v>
+        <v>337</v>
       </c>
       <c r="D114" s="17" t="s">
         <v>193</v>
@@ -7209,10 +7209,10 @@
         <v>20</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>253</v>
+        <v>332</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>160</v>
@@ -7223,10 +7223,10 @@
         <v>21</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C116" s="26" t="s">
-        <v>259</v>
+        <v>338</v>
       </c>
       <c r="D116" s="18" t="s">
         <v>196</v>
@@ -7237,10 +7237,10 @@
         <v>22</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>260</v>
+        <v>339</v>
       </c>
       <c r="D117" s="18" t="s">
         <v>195</v>
@@ -7251,10 +7251,10 @@
         <v>23</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>241</v>
+        <v>320</v>
       </c>
       <c r="D118" s="12" t="s">
         <v>183</v>
@@ -7265,10 +7265,10 @@
         <v>24</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>261</v>
+        <v>340</v>
       </c>
       <c r="D119" s="18" t="s">
         <v>197</v>
@@ -7279,10 +7279,10 @@
         <v>25</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>262</v>
+        <v>341</v>
       </c>
       <c r="D120" s="27" t="s">
         <v>216</v>
@@ -7293,10 +7293,10 @@
         <v>26</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>263</v>
+        <v>342</v>
       </c>
       <c r="D121" s="11" t="s">
         <v>172</v>
@@ -7307,10 +7307,10 @@
         <v>26</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>264</v>
+        <v>343</v>
       </c>
       <c r="D122" s="36" t="s">
         <v>198</v>
@@ -7321,10 +7321,10 @@
         <v>26</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>302</v>
+        <v>237</v>
       </c>
       <c r="C123" s="39" t="s">
-        <v>265</v>
+        <v>344</v>
       </c>
       <c r="D123" s="36" t="s">
         <v>199</v>
@@ -7335,10 +7335,10 @@
         <v>27</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C124" s="40" t="s">
-        <v>266</v>
+        <v>345</v>
       </c>
       <c r="D124" s="20" t="s">
         <v>200</v>
@@ -7349,10 +7349,10 @@
         <v>27</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c r="C125" s="39" t="s">
-        <v>267</v>
+        <v>346</v>
       </c>
       <c r="D125" s="21" t="s">
         <v>201</v>
@@ -7363,10 +7363,10 @@
         <v>28</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C126" s="44" t="s">
-        <v>233</v>
+        <v>347</v>
       </c>
       <c r="D126" s="27" t="s">
         <v>213</v>
@@ -7377,10 +7377,10 @@
         <v>29</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C127" s="45" t="s">
-        <v>235</v>
+        <v>348</v>
       </c>
       <c r="D127" s="22" t="s">
         <v>202</v>
@@ -7391,10 +7391,10 @@
         <v>29</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c r="C128" s="46" t="s">
-        <v>268</v>
+        <v>349</v>
       </c>
       <c r="D128" s="11" t="s">
         <v>173</v>
@@ -7405,10 +7405,10 @@
         <v>30</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>269</v>
+        <v>350</v>
       </c>
       <c r="D129" s="22" t="s">
         <v>203</v>
@@ -7419,10 +7419,10 @@
         <v>31</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>270</v>
+        <v>351</v>
       </c>
       <c r="D130" s="22" t="s">
         <v>204</v>
@@ -7433,10 +7433,10 @@
         <v>128</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>271</v>
+        <v>352</v>
       </c>
       <c r="D131" s="22" t="s">
         <v>207</v>
@@ -7447,10 +7447,10 @@
         <v>129</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>272</v>
+        <v>353</v>
       </c>
       <c r="D132" s="22" t="s">
         <v>208</v>
@@ -7461,10 +7461,10 @@
         <v>130</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C133" s="35" t="s">
-        <v>263</v>
+        <v>342</v>
       </c>
       <c r="D133" s="22" t="s">
         <v>206</v>
@@ -7475,10 +7475,10 @@
         <v>130</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c r="C134" s="35" t="s">
-        <v>273</v>
+        <v>354</v>
       </c>
       <c r="D134" s="34" t="s">
         <v>226</v>
@@ -7489,10 +7489,10 @@
         <v>131</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C135" s="36" t="s">
-        <v>268</v>
+        <v>349</v>
       </c>
       <c r="D135" s="22" t="s">
         <v>205</v>
@@ -7503,10 +7503,10 @@
         <v>131</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c r="C136" s="36" t="s">
-        <v>274</v>
+        <v>355</v>
       </c>
       <c r="D136" s="36" t="s">
         <v>227</v>
@@ -7517,10 +7517,10 @@
         <v>132</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>275</v>
+        <v>356</v>
       </c>
       <c r="D137" s="30" t="s">
         <v>209</v>
@@ -7531,10 +7531,10 @@
         <v>133</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>276</v>
+        <v>357</v>
       </c>
       <c r="D138" s="24" t="s">
         <v>210</v>
@@ -7545,10 +7545,10 @@
         <v>134</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C139" s="28" t="s">
-        <v>277</v>
+        <v>358</v>
       </c>
       <c r="D139" s="24" t="s">
         <v>211</v>
@@ -7559,10 +7559,10 @@
         <v>135</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C140" s="28" t="s">
-        <v>278</v>
+        <v>359</v>
       </c>
       <c r="D140" s="30" t="s">
         <v>212</v>
@@ -7573,10 +7573,10 @@
         <v>136</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C141" s="28" t="s">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D141" s="27" t="s">
         <v>215</v>
@@ -7587,10 +7587,10 @@
         <v>137</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C142" s="33" t="s">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="D142" s="27" t="s">
         <v>214</v>
@@ -7601,10 +7601,10 @@
         <v>137</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c r="C143" s="48" t="s">
-        <v>281</v>
+        <v>362</v>
       </c>
       <c r="D143" s="30" t="s">
         <v>220</v>
@@ -7615,13 +7615,13 @@
         <v>138</v>
       </c>
       <c r="B144" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C144" s="47" t="s">
+        <v>363</v>
+      </c>
+      <c r="D144" s="47" t="s">
         <v>234</v>
-      </c>
-      <c r="C144" s="47" t="s">
-        <v>300</v>
-      </c>
-      <c r="D144" s="47" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -7629,10 +7629,10 @@
         <v>139</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>283</v>
+        <v>364</v>
       </c>
       <c r="D145" s="29" t="s">
         <v>217</v>
@@ -7643,10 +7643,10 @@
         <v>140</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C146" s="32" t="s">
-        <v>284</v>
+        <v>365</v>
       </c>
       <c r="D146" s="31" t="s">
         <v>223</v>
@@ -7657,10 +7657,10 @@
         <v>141</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C147" s="33" t="s">
-        <v>285</v>
+        <v>366</v>
       </c>
       <c r="D147" s="30" t="s">
         <v>218</v>
@@ -7671,10 +7671,10 @@
         <v>141</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c r="C148" s="33" t="s">
-        <v>286</v>
+        <v>367</v>
       </c>
       <c r="D148" s="32" t="s">
         <v>224</v>
@@ -7685,10 +7685,10 @@
         <v>142</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C149" s="33" t="s">
-        <v>287</v>
+        <v>368</v>
       </c>
       <c r="D149" s="30" t="s">
         <v>219</v>
@@ -7699,10 +7699,10 @@
         <v>142</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c r="C150" s="33" t="s">
-        <v>288</v>
+        <v>369</v>
       </c>
       <c r="D150" s="31" t="s">
         <v>221</v>
@@ -7713,10 +7713,10 @@
         <v>143</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>318</v>
+        <v>250</v>
       </c>
       <c r="C151" s="33" t="s">
-        <v>289</v>
+        <v>370</v>
       </c>
       <c r="D151" s="31" t="s">
         <v>222</v>
@@ -7727,10 +7727,10 @@
         <v>144</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C152" s="38" t="s">
-        <v>290</v>
+        <v>371</v>
       </c>
       <c r="D152" s="32" t="s">
         <v>225</v>
@@ -7741,10 +7741,10 @@
         <v>145</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C153" s="38" t="s">
-        <v>291</v>
+        <v>372</v>
       </c>
       <c r="D153" s="37" t="s">
         <v>229</v>
@@ -7755,13 +7755,13 @@
         <v>146</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>319</v>
+        <v>251</v>
       </c>
       <c r="C154" s="42" t="s">
-        <v>292</v>
+        <v>373</v>
       </c>
       <c r="D154" s="47" t="s">
-        <v>299</v>
+        <v>235</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -7769,10 +7769,10 @@
         <v>147</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C155" s="42" t="s">
-        <v>293</v>
+        <v>374</v>
       </c>
       <c r="D155" s="41" t="s">
         <v>230</v>
@@ -7783,10 +7783,10 @@
         <v>148</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>320</v>
+        <v>252</v>
       </c>
       <c r="C156" s="42" t="s">
-        <v>294</v>
+        <v>375</v>
       </c>
       <c r="D156" s="41" t="s">
         <v>231</v>
@@ -7797,10 +7797,10 @@
         <v>149</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>321</v>
+        <v>253</v>
       </c>
       <c r="C157" s="50" t="s">
-        <v>295</v>
+        <v>376</v>
       </c>
       <c r="D157" s="37" t="s">
         <v>228</v>
@@ -7811,13 +7811,13 @@
         <v>150</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C158" s="50" t="s">
-        <v>305</v>
+        <v>377</v>
       </c>
       <c r="D158" s="49" t="s">
-        <v>304</v>
+        <v>239</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -7825,10 +7825,10 @@
         <v>151</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C159" s="43" t="s">
-        <v>297</v>
+        <v>378</v>
       </c>
       <c r="D159" s="43" t="s">
         <v>232</v>
@@ -7839,13 +7839,13 @@
         <v>152</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C160" s="38" t="s">
-        <v>290</v>
+        <v>371</v>
       </c>
       <c r="D160" s="49" t="s">
-        <v>303</v>
+        <v>238</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -7853,13 +7853,13 @@
         <v>153</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C161" s="50" t="s">
-        <v>306</v>
+        <v>379</v>
       </c>
       <c r="D161" s="49" t="s">
-        <v>307</v>
+        <v>240</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -7867,13 +7867,13 @@
         <v>154</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C162" s="43" t="s">
-        <v>296</v>
+        <v>380</v>
       </c>
       <c r="D162" s="52" t="s">
-        <v>325</v>
+        <v>257</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -7881,13 +7881,13 @@
         <v>155</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>333</v>
+        <v>265</v>
       </c>
       <c r="C163" s="50" t="s">
-        <v>308</v>
+        <v>381</v>
       </c>
       <c r="D163" s="53" t="s">
-        <v>331</v>
+        <v>263</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -7895,13 +7895,13 @@
         <v>156</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C164" s="18" t="s">
-        <v>261</v>
+        <v>340</v>
       </c>
       <c r="D164" s="54" t="s">
-        <v>332</v>
+        <v>264</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -7909,13 +7909,13 @@
         <v>157</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>361</v>
+        <v>293</v>
       </c>
       <c r="C165" s="25" t="s">
-        <v>275</v>
+        <v>356</v>
       </c>
       <c r="D165" s="58" t="s">
-        <v>354</v>
+        <v>286</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -7923,447 +7923,447 @@
         <v>158</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>369</v>
+        <v>300</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>258</v>
+        <v>337</v>
       </c>
       <c r="D166" s="56" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C167" s="32" t="s">
-        <v>283</v>
+        <v>364</v>
       </c>
       <c r="D167" s="56" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>310</v>
+        <v>242</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C168" s="32" t="s">
-        <v>284</v>
+        <v>365</v>
       </c>
       <c r="D168" s="56" t="s">
-        <v>337</v>
+        <v>269</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>311</v>
+        <v>243</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C169" s="33" t="s">
-        <v>285</v>
+        <v>366</v>
       </c>
       <c r="D169" s="56" t="s">
-        <v>338</v>
+        <v>270</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>386</v>
+        <v>233</v>
       </c>
       <c r="C170" s="29" t="s">
-        <v>282</v>
+        <v>382</v>
       </c>
       <c r="D170" s="57" t="s">
-        <v>339</v>
+        <v>271</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>313</v>
+        <v>245</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C171" s="15" t="s">
-        <v>251</v>
+        <v>330</v>
       </c>
       <c r="D171" s="56" t="s">
-        <v>340</v>
+        <v>272</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>314</v>
+        <v>246</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>237</v>
+        <v>316</v>
       </c>
       <c r="D172" s="56" t="s">
-        <v>341</v>
+        <v>273</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>315</v>
+        <v>247</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C173" s="33" t="s">
-        <v>285</v>
+        <v>366</v>
       </c>
       <c r="D173" s="56" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>316</v>
+        <v>248</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C174" s="32" t="s">
-        <v>284</v>
+        <v>365</v>
       </c>
       <c r="D174" s="56" t="s">
-        <v>343</v>
+        <v>275</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>317</v>
+        <v>249</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C175" s="51" t="s">
-        <v>265</v>
+        <v>344</v>
       </c>
       <c r="D175" s="56" t="s">
-        <v>344</v>
+        <v>276</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>322</v>
+        <v>254</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C176" s="29" t="s">
-        <v>282</v>
+        <v>382</v>
       </c>
       <c r="D176" s="56" t="s">
-        <v>345</v>
+        <v>277</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>323</v>
+        <v>255</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C177" s="28" t="s">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D177" s="56" t="s">
-        <v>346</v>
+        <v>278</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>324</v>
+        <v>256</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C178" s="39" t="s">
-        <v>267</v>
+        <v>346</v>
       </c>
       <c r="D178" s="56" t="s">
-        <v>347</v>
+        <v>279</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>326</v>
+        <v>258</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C179" s="40" t="s">
-        <v>266</v>
+        <v>345</v>
       </c>
       <c r="D179" s="56" t="s">
-        <v>348</v>
+        <v>280</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>327</v>
+        <v>259</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C180" s="44" t="s">
-        <v>233</v>
+        <v>347</v>
       </c>
       <c r="D180" s="58" t="s">
-        <v>349</v>
+        <v>281</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>328</v>
+        <v>260</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C181" s="45" t="s">
-        <v>235</v>
+        <v>348</v>
       </c>
       <c r="D181" s="56" t="s">
-        <v>350</v>
+        <v>282</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>329</v>
+        <v>261</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C182" s="28" t="s">
-        <v>277</v>
+        <v>358</v>
       </c>
       <c r="D182" s="56" t="s">
-        <v>351</v>
+        <v>283</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C183" s="51" t="s">
-        <v>264</v>
+        <v>343</v>
       </c>
       <c r="D183" s="56" t="s">
-        <v>352</v>
+        <v>284</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>353</v>
+        <v>285</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>257</v>
+        <v>336</v>
       </c>
       <c r="D184" s="55" t="s">
-        <v>334</v>
+        <v>266</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>356</v>
+        <v>288</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>251</v>
+        <v>330</v>
       </c>
       <c r="D185" s="59" t="s">
-        <v>355</v>
+        <v>287</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>358</v>
+        <v>290</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C186" s="38" t="s">
-        <v>290</v>
+        <v>371</v>
       </c>
       <c r="D186" s="59" t="s">
-        <v>357</v>
+        <v>289</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>360</v>
+        <v>292</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C187" s="15" t="s">
-        <v>250</v>
+        <v>329</v>
       </c>
       <c r="D187" s="59" t="s">
-        <v>359</v>
+        <v>291</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>363</v>
+        <v>295</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C188" s="33" t="s">
-        <v>286</v>
+        <v>367</v>
       </c>
       <c r="D188" s="60" t="s">
-        <v>362</v>
+        <v>294</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>365</v>
+        <v>297</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C189" s="38" t="s">
-        <v>291</v>
+        <v>372</v>
       </c>
       <c r="D189" s="60" t="s">
-        <v>364</v>
+        <v>296</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>367</v>
+        <v>298</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C190" s="61" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="D190" s="60" t="s">
-        <v>368</v>
+        <v>299</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>370</v>
+        <v>301</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C191" s="23" t="s">
-        <v>269</v>
+        <v>350</v>
       </c>
       <c r="D191" s="62" t="s">
-        <v>377</v>
+        <v>308</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>372</v>
+        <v>303</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C192" s="63" t="s">
-        <v>270</v>
+        <v>351</v>
       </c>
       <c r="D192" s="62" t="s">
-        <v>371</v>
+        <v>302</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>374</v>
+        <v>305</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C193" s="63" t="s">
-        <v>271</v>
+        <v>352</v>
       </c>
       <c r="D193" s="62" t="s">
-        <v>373</v>
+        <v>304</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>375</v>
+        <v>306</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C194" s="28" t="s">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="D194" s="62" t="s">
-        <v>376</v>
+        <v>307</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>378</v>
+        <v>309</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C195" s="64" t="s">
-        <v>273</v>
+        <v>354</v>
       </c>
       <c r="D195" s="64" t="s">
-        <v>379</v>
+        <v>310</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>381</v>
+        <v>312</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C196" s="64" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D196" s="64" t="s">
-        <v>380</v>
+        <v>311</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>384</v>
+        <v>314</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C197" s="64" t="s">
         <v>385</v>
       </c>
       <c r="D197" s="64" t="s">
-        <v>383</v>
+        <v>313</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">

--- a/files/Plan.xlsx
+++ b/files/Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharmProject\Ogorod\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38E86E2-F93E-4B99-BFB2-D35B4015E40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96ADE22-94C8-4444-BA0A-6D6DD1355CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4870,217 +4870,217 @@
     <t>01-07-2022</t>
   </si>
   <si>
-    <t>Telegram_bot_ogorod/img/perez.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/baklazan.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/tomat.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/selderei.png</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/vremena_goda/aprel.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/cabbage_3.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/semena_kapusta.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/kapusta_rassada.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/rassada_1.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/kapusta.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/vremena_goda/may.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/rassada_2.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/rassada_3.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/ovoshti.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/kapusta_2.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/kapusta_3.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/kapusta_4.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/svekla.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/svekla_2.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/svekla_3.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/svekla_4.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/svekla_7.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/svekla_5.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/svekla_6.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/svekla_8.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/svekla_9.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/mai.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/ogurzi.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/ogurzi_2.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/ogurzi_3.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/ogurzi_4.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/ogurzi_5.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/ogurzi_6.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/ogurzi_7.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/kabachki.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/kabachki_2.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/kabachki_3.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/kabachki_4.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/kabachki_5.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/morkov_1.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/luk_1.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/ovoshti_2.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/ovoshti_3.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/ogurzi_8.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/ogurzi_9.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/ogurzi_10.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/ogurzi_11.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/svekla_10.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/svekla_11.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/tomat_3.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/tomat_4.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/tomat_5.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/kapusta_5.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/tomat_6.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/tomat_7.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/ogurzi_12.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/kapusta_6.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/selderei_1.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/ovoshti_4.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/kabachki_6.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/tomat_8.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/ogurzi_13.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/perez_2.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/kabachki_7.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/perez_3.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/ovoshti_5.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/perez_4.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/tomat_2.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/selderei.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/morkov_2.jpg</t>
-  </si>
-  <si>
-    <t>Telegram_bot_ogorod/img/morkov_3.jpg</t>
+    <t>/img/perez.jpg</t>
+  </si>
+  <si>
+    <t>/img/baklazan.jpg</t>
+  </si>
+  <si>
+    <t>/img/tomat.jpg</t>
+  </si>
+  <si>
+    <t>/img/selderei.png</t>
+  </si>
+  <si>
+    <t>/img/vremena_goda/aprel.jpg</t>
+  </si>
+  <si>
+    <t>/img/cabbage_3.jpg</t>
+  </si>
+  <si>
+    <t>/img/semena_kapusta.jpg</t>
+  </si>
+  <si>
+    <t>/img/kapusta_rassada.jpg</t>
+  </si>
+  <si>
+    <t>/img/rassada_1.jpg</t>
+  </si>
+  <si>
+    <t>/img/kapusta.jpg</t>
+  </si>
+  <si>
+    <t>/img/vremena_goda/may.jpg</t>
+  </si>
+  <si>
+    <t>/img/rassada_2.jpg</t>
+  </si>
+  <si>
+    <t>/img/rassada_3.jpg</t>
+  </si>
+  <si>
+    <t>/img/ovoshti.jpg</t>
+  </si>
+  <si>
+    <t>/img/kapusta_2.jpg</t>
+  </si>
+  <si>
+    <t>/img/kapusta_3.jpg</t>
+  </si>
+  <si>
+    <t>/img/kapusta_4.jpg</t>
+  </si>
+  <si>
+    <t>/img/svekla.jpg</t>
+  </si>
+  <si>
+    <t>/img/svekla_2.jpg</t>
+  </si>
+  <si>
+    <t>/img/svekla_3.jpg</t>
+  </si>
+  <si>
+    <t>/img/svekla_4.jpg</t>
+  </si>
+  <si>
+    <t>/img/svekla_7.jpg</t>
+  </si>
+  <si>
+    <t>/img/svekla_5.jpg</t>
+  </si>
+  <si>
+    <t>/img/svekla_6.jpg</t>
+  </si>
+  <si>
+    <t>/img/svekla_8.jpg</t>
+  </si>
+  <si>
+    <t>/img/svekla_9.jpg</t>
+  </si>
+  <si>
+    <t>/img/mai.jpg</t>
+  </si>
+  <si>
+    <t>/img/ogurzi.jpg</t>
+  </si>
+  <si>
+    <t>/img/ogurzi_2.jpg</t>
+  </si>
+  <si>
+    <t>/img/ogurzi_3.jpg</t>
+  </si>
+  <si>
+    <t>/img/ogurzi_4.jpg</t>
+  </si>
+  <si>
+    <t>/img/ogurzi_5.jpg</t>
+  </si>
+  <si>
+    <t>/img/ogurzi_6.jpg</t>
+  </si>
+  <si>
+    <t>/img/ogurzi_7.jpg</t>
+  </si>
+  <si>
+    <t>/img/kabachki.jpg</t>
+  </si>
+  <si>
+    <t>/img/kabachki_2.jpg</t>
+  </si>
+  <si>
+    <t>/img/kabachki_3.jpg</t>
+  </si>
+  <si>
+    <t>/img/kabachki_4.jpg</t>
+  </si>
+  <si>
+    <t>/img/kabachki_5.jpg</t>
+  </si>
+  <si>
+    <t>/img/morkov_1.jpg</t>
+  </si>
+  <si>
+    <t>/img/luk_1.jpg</t>
+  </si>
+  <si>
+    <t>/img/ovoshti_2.jpg</t>
+  </si>
+  <si>
+    <t>/img/ovoshti_3.jpg</t>
+  </si>
+  <si>
+    <t>/img/ogurzi_8.jpg</t>
+  </si>
+  <si>
+    <t>/img/ogurzi_9.jpg</t>
+  </si>
+  <si>
+    <t>/img/ogurzi_10.jpg</t>
+  </si>
+  <si>
+    <t>/img/ogurzi_11.jpg</t>
+  </si>
+  <si>
+    <t>/img/svekla_10.jpg</t>
+  </si>
+  <si>
+    <t>/img/svekla_11.jpg</t>
+  </si>
+  <si>
+    <t>/img/tomat_3.jpg</t>
+  </si>
+  <si>
+    <t>/img/tomat_4.jpg</t>
+  </si>
+  <si>
+    <t>/img/tomat_5.jpg</t>
+  </si>
+  <si>
+    <t>/img/kapusta_5.jpg</t>
+  </si>
+  <si>
+    <t>/img/tomat_6.jpg</t>
+  </si>
+  <si>
+    <t>/img/tomat_7.jpg</t>
+  </si>
+  <si>
+    <t>/img/ogurzi_12.jpg</t>
+  </si>
+  <si>
+    <t>/img/kapusta_6.jpg</t>
+  </si>
+  <si>
+    <t>/img/selderei_1.jpg</t>
+  </si>
+  <si>
+    <t>/img/ovoshti_4.jpg</t>
+  </si>
+  <si>
+    <t>/img/kabachki_6.jpg</t>
+  </si>
+  <si>
+    <t>/img/tomat_8.jpg</t>
+  </si>
+  <si>
+    <t>/img/ogurzi_13.jpg</t>
+  </si>
+  <si>
+    <t>/img/perez_2.jpg</t>
+  </si>
+  <si>
+    <t>/img/kabachki_7.jpg</t>
+  </si>
+  <si>
+    <t>/img/perez_3.jpg</t>
+  </si>
+  <si>
+    <t>/img/ovoshti_5.jpg</t>
+  </si>
+  <si>
+    <t>/img/perez_4.jpg</t>
+  </si>
+  <si>
+    <t>/img/tomat_2.jpg</t>
+  </si>
+  <si>
+    <t>/img/selderei.jpg</t>
+  </si>
+  <si>
+    <t>/img/morkov_2.jpg</t>
+  </si>
+  <si>
+    <t>/img/morkov_3.jpg</t>
   </si>
 </sst>
 </file>
@@ -6023,7 +6023,7 @@
   <dimension ref="A1:D198"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="S45" sqref="S45"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/files/Plan.xlsx
+++ b/files/Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharmProject\Ogorod\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96ADE22-94C8-4444-BA0A-6D6DD1355CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F36B95-906B-4EE8-870F-10B310660C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4870,217 +4870,217 @@
     <t>01-07-2022</t>
   </si>
   <si>
-    <t>/img/perez.jpg</t>
-  </si>
-  <si>
-    <t>/img/baklazan.jpg</t>
-  </si>
-  <si>
-    <t>/img/tomat.jpg</t>
-  </si>
-  <si>
-    <t>/img/selderei.png</t>
-  </si>
-  <si>
-    <t>/img/vremena_goda/aprel.jpg</t>
-  </si>
-  <si>
-    <t>/img/cabbage_3.jpg</t>
-  </si>
-  <si>
-    <t>/img/semena_kapusta.jpg</t>
-  </si>
-  <si>
-    <t>/img/kapusta_rassada.jpg</t>
-  </si>
-  <si>
-    <t>/img/rassada_1.jpg</t>
-  </si>
-  <si>
-    <t>/img/kapusta.jpg</t>
-  </si>
-  <si>
-    <t>/img/vremena_goda/may.jpg</t>
-  </si>
-  <si>
-    <t>/img/rassada_2.jpg</t>
-  </si>
-  <si>
-    <t>/img/rassada_3.jpg</t>
-  </si>
-  <si>
-    <t>/img/ovoshti.jpg</t>
-  </si>
-  <si>
-    <t>/img/kapusta_2.jpg</t>
-  </si>
-  <si>
-    <t>/img/kapusta_3.jpg</t>
-  </si>
-  <si>
-    <t>/img/kapusta_4.jpg</t>
-  </si>
-  <si>
-    <t>/img/svekla.jpg</t>
-  </si>
-  <si>
-    <t>/img/svekla_2.jpg</t>
-  </si>
-  <si>
-    <t>/img/svekla_3.jpg</t>
-  </si>
-  <si>
-    <t>/img/svekla_4.jpg</t>
-  </si>
-  <si>
-    <t>/img/svekla_7.jpg</t>
-  </si>
-  <si>
-    <t>/img/svekla_5.jpg</t>
-  </si>
-  <si>
-    <t>/img/svekla_6.jpg</t>
-  </si>
-  <si>
-    <t>/img/svekla_8.jpg</t>
-  </si>
-  <si>
-    <t>/img/svekla_9.jpg</t>
-  </si>
-  <si>
-    <t>/img/mai.jpg</t>
-  </si>
-  <si>
-    <t>/img/ogurzi.jpg</t>
-  </si>
-  <si>
-    <t>/img/ogurzi_2.jpg</t>
-  </si>
-  <si>
-    <t>/img/ogurzi_3.jpg</t>
-  </si>
-  <si>
-    <t>/img/ogurzi_4.jpg</t>
-  </si>
-  <si>
-    <t>/img/ogurzi_5.jpg</t>
-  </si>
-  <si>
-    <t>/img/ogurzi_6.jpg</t>
-  </si>
-  <si>
-    <t>/img/ogurzi_7.jpg</t>
-  </si>
-  <si>
-    <t>/img/kabachki.jpg</t>
-  </si>
-  <si>
-    <t>/img/kabachki_2.jpg</t>
-  </si>
-  <si>
-    <t>/img/kabachki_3.jpg</t>
-  </si>
-  <si>
-    <t>/img/kabachki_4.jpg</t>
-  </si>
-  <si>
-    <t>/img/kabachki_5.jpg</t>
-  </si>
-  <si>
-    <t>/img/morkov_1.jpg</t>
-  </si>
-  <si>
-    <t>/img/luk_1.jpg</t>
-  </si>
-  <si>
-    <t>/img/ovoshti_2.jpg</t>
-  </si>
-  <si>
-    <t>/img/ovoshti_3.jpg</t>
-  </si>
-  <si>
-    <t>/img/ogurzi_8.jpg</t>
-  </si>
-  <si>
-    <t>/img/ogurzi_9.jpg</t>
-  </si>
-  <si>
-    <t>/img/ogurzi_10.jpg</t>
-  </si>
-  <si>
-    <t>/img/ogurzi_11.jpg</t>
-  </si>
-  <si>
-    <t>/img/svekla_10.jpg</t>
-  </si>
-  <si>
-    <t>/img/svekla_11.jpg</t>
-  </si>
-  <si>
-    <t>/img/tomat_3.jpg</t>
-  </si>
-  <si>
-    <t>/img/tomat_4.jpg</t>
-  </si>
-  <si>
-    <t>/img/tomat_5.jpg</t>
-  </si>
-  <si>
-    <t>/img/kapusta_5.jpg</t>
-  </si>
-  <si>
-    <t>/img/tomat_6.jpg</t>
-  </si>
-  <si>
-    <t>/img/tomat_7.jpg</t>
-  </si>
-  <si>
-    <t>/img/ogurzi_12.jpg</t>
-  </si>
-  <si>
-    <t>/img/kapusta_6.jpg</t>
-  </si>
-  <si>
-    <t>/img/selderei_1.jpg</t>
-  </si>
-  <si>
-    <t>/img/ovoshti_4.jpg</t>
-  </si>
-  <si>
-    <t>/img/kabachki_6.jpg</t>
-  </si>
-  <si>
-    <t>/img/tomat_8.jpg</t>
-  </si>
-  <si>
-    <t>/img/ogurzi_13.jpg</t>
-  </si>
-  <si>
-    <t>/img/perez_2.jpg</t>
-  </si>
-  <si>
-    <t>/img/kabachki_7.jpg</t>
-  </si>
-  <si>
-    <t>/img/perez_3.jpg</t>
-  </si>
-  <si>
-    <t>/img/ovoshti_5.jpg</t>
-  </si>
-  <si>
-    <t>/img/perez_4.jpg</t>
-  </si>
-  <si>
-    <t>/img/tomat_2.jpg</t>
-  </si>
-  <si>
-    <t>/img/selderei.jpg</t>
-  </si>
-  <si>
-    <t>/img/morkov_2.jpg</t>
-  </si>
-  <si>
-    <t>/img/morkov_3.jpg</t>
+    <t>/app/img/perez.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/baklazan.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/tomat.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/selderei.png</t>
+  </si>
+  <si>
+    <t>/app/img/vremena_goda/aprel.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/cabbage_3.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/semena_kapusta.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/kapusta_rassada.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/rassada_1.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/kapusta.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/vremena_goda/may.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/rassada_2.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/rassada_3.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/ovoshti.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/kapusta_2.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/kapusta_3.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/kapusta_4.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/svekla.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/svekla_2.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/svekla_3.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/svekla_4.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/svekla_7.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/svekla_5.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/svekla_6.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/svekla_8.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/svekla_9.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/mai.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/ogurzi.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/ogurzi_2.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/ogurzi_3.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/ogurzi_4.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/ogurzi_5.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/ogurzi_6.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/ogurzi_7.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/kabachki.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/kabachki_2.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/kabachki_3.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/kabachki_4.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/kabachki_5.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/morkov_1.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/luk_1.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/ovoshti_2.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/ovoshti_3.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/ogurzi_8.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/ogurzi_9.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/ogurzi_10.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/ogurzi_11.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/svekla_10.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/svekla_11.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/tomat_3.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/tomat_4.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/tomat_5.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/kapusta_5.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/tomat_6.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/tomat_7.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/ogurzi_12.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/kapusta_6.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/selderei_1.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/ovoshti_4.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/kabachki_6.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/tomat_8.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/ogurzi_13.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/perez_2.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/kabachki_7.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/perez_3.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/ovoshti_5.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/perez_4.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/tomat_2.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/selderei.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/morkov_2.jpg</t>
+  </si>
+  <si>
+    <t>/app/img/morkov_3.jpg</t>
   </si>
 </sst>
 </file>
@@ -6022,7 +6022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>

--- a/files/Plan.xlsx
+++ b/files/Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharmProject\Ogorod\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F36B95-906B-4EE8-870F-10B310660C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF2BAF0-C702-485C-B9E2-B15BDC51B47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="387">
   <si>
     <t>Дата</t>
   </si>
@@ -5082,17 +5082,28 @@
   <si>
     <t>/app/img/morkov_3.jpg</t>
   </si>
+  <si>
+    <t>15:30:00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5547,8 +5558,8 @@
   </cellStyleXfs>
   <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5560,11 +5571,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5608,6 +5622,9 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5617,16 +5634,13 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5638,13 +5652,13 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5653,10 +5667,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5665,22 +5679,25 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5689,37 +5706,37 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="50" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="49" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5731,13 +5748,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -6022,8 +6033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7993,7 +8004,7 @@
         <v>245</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>233</v>
+        <v>386</v>
       </c>
       <c r="C171" s="15" t="s">
         <v>330</v>
@@ -8371,7 +8382,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D198" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <phoneticPr fontId="46" type="noConversion"/>
+  <phoneticPr fontId="47" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/files/Plan.xlsx
+++ b/files/Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharmProject\Ogorod\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF2BAF0-C702-485C-B9E2-B15BDC51B47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B097B8E0-DAB7-4164-B709-B33CD52FF2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5083,7 +5083,7 @@
     <t>/app/img/morkov_3.jpg</t>
   </si>
   <si>
-    <t>15:30:00</t>
+    <t>12:45:00</t>
   </si>
 </sst>
 </file>
@@ -6034,7 +6034,7 @@
   <dimension ref="A1:D198"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="B172" sqref="B172"/>
+      <selection activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/files/Plan.xlsx
+++ b/files/Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharmProject\Ogorod\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B097B8E0-DAB7-4164-B709-B33CD52FF2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585AA8F8-A7CD-46D4-BD2C-2353F92EAD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="379">
   <si>
     <t>Дата</t>
   </si>
@@ -865,12 +865,6 @@
 Томаты в теплице поливают до цветения 1 раз в 4-5 дней (первый раз через дней 10 после высадки в теплицу), во время цветения – необильно 1 раз в 2 дня.</t>
   </si>
   <si>
-    <t>13:00:00</t>
-  </si>
-  <si>
-    <t>18:00:00</t>
-  </si>
-  <si>
     <t>Высаживаем среднеспелые сорта белокочанной капусты в открытый грунт. 
 Хорошие предшественники – тыквенные, картофель, морковь и лук. 
 За 2 часа до высадки обильно полейте рассаду.
@@ -917,18 +911,6 @@
     <t>09-06-2022</t>
   </si>
   <si>
-    <t>10:30:00</t>
-  </si>
-  <si>
-    <t>09:52:00</t>
-  </si>
-  <si>
-    <t>11:34:00</t>
-  </si>
-  <si>
-    <t>16:02:00</t>
-  </si>
-  <si>
     <t>10-06-2023</t>
   </si>
   <si>
@@ -1218,9 +1200,6 @@
       </rPr>
       <t>За 2-3 недели до выкапывания свеклы полив прекращают, чтобы свекла выросла более сладкой.</t>
     </r>
-  </si>
-  <si>
-    <t>20:16:00</t>
   </si>
   <si>
     <r>
@@ -3801,9 +3780,6 @@
     <t>21-06-2022</t>
   </si>
   <si>
-    <t>11:15:00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4068,9 +4044,6 @@
       </rPr>
       <t xml:space="preserve"> Созревшие корнеплоды собирают в середине осени. </t>
     </r>
-  </si>
-  <si>
-    <t>13:20:00</t>
   </si>
   <si>
     <t>25-06-2022</t>
@@ -5083,7 +5056,10 @@
     <t>/app/img/morkov_3.jpg</t>
   </si>
   <si>
-    <t>12:45:00</t>
+    <t>06:00:00</t>
+  </si>
+  <si>
+    <t>15:00:00</t>
   </si>
 </sst>
 </file>
@@ -6033,8 +6009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="B171" sqref="B171"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B192" sqref="B192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6432,10 +6408,10 @@
         <v>80</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C48" s="65" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>165</v>
@@ -6454,10 +6430,10 @@
         <v>82</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>127</v>
@@ -6476,10 +6452,10 @@
         <v>84</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>168</v>
@@ -6506,10 +6482,10 @@
         <v>87</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>169</v>
@@ -6520,10 +6496,10 @@
         <v>88</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>166</v>
@@ -6534,10 +6510,10 @@
         <v>89</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>124</v>
@@ -6548,10 +6524,10 @@
         <v>90</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>127</v>
@@ -6570,10 +6546,10 @@
         <v>92</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>125</v>
@@ -6600,10 +6576,10 @@
         <v>95</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>167</v>
@@ -6614,10 +6590,10 @@
         <v>96</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>161</v>
@@ -6628,10 +6604,10 @@
         <v>97</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>126</v>
@@ -6642,10 +6618,10 @@
         <v>98</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>170</v>
@@ -6664,10 +6640,10 @@
         <v>100</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>167</v>
@@ -6686,10 +6662,10 @@
         <v>102</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>126</v>
@@ -6708,10 +6684,10 @@
         <v>104</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>162</v>
@@ -6722,10 +6698,10 @@
         <v>105</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>167</v>
@@ -6736,10 +6712,10 @@
         <v>106</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>126</v>
@@ -6758,10 +6734,10 @@
         <v>108</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D76" s="11" t="s">
         <v>167</v>
@@ -6780,10 +6756,10 @@
         <v>110</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>171</v>
@@ -6898,10 +6874,10 @@
         <v>164</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>163</v>
@@ -6912,10 +6888,10 @@
         <v>33</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>181</v>
@@ -6926,10 +6902,10 @@
         <v>33</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="D94" s="12" t="s">
         <v>177</v>
@@ -6940,10 +6916,10 @@
         <v>32</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D95" s="11" t="s">
         <v>175</v>
@@ -6954,10 +6930,10 @@
         <v>4</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="D96" s="12" t="s">
         <v>176</v>
@@ -6968,10 +6944,10 @@
         <v>5</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D97" s="14" t="s">
         <v>186</v>
@@ -6982,10 +6958,10 @@
         <v>6</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="D98" s="14" t="s">
         <v>174</v>
@@ -6996,10 +6972,10 @@
         <v>7</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>180</v>
@@ -7010,10 +6986,10 @@
         <v>8</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D100" s="10" t="s">
         <v>163</v>
@@ -7024,10 +7000,10 @@
         <v>9</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D101" s="12" t="s">
         <v>178</v>
@@ -7038,10 +7014,10 @@
         <v>10</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>179</v>
@@ -7052,10 +7028,10 @@
         <v>11</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D103" s="13" t="s">
         <v>185</v>
@@ -7066,10 +7042,10 @@
         <v>12</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>184</v>
@@ -7080,10 +7056,10 @@
         <v>13</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D105" s="15" t="s">
         <v>187</v>
@@ -7094,10 +7070,10 @@
         <v>14</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D106" s="15" t="s">
         <v>188</v>
@@ -7108,10 +7084,10 @@
         <v>15</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D107" s="15" t="s">
         <v>189</v>
@@ -7122,10 +7098,10 @@
         <v>16</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>159</v>
@@ -7136,10 +7112,10 @@
         <v>16</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="D109" s="16" t="s">
         <v>191</v>
@@ -7150,10 +7126,10 @@
         <v>17</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D110" s="16" t="s">
         <v>190</v>
@@ -7164,10 +7140,10 @@
         <v>18</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D111" s="17" t="s">
         <v>192</v>
@@ -7178,10 +7154,10 @@
         <v>18</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D112" s="12" t="s">
         <v>182</v>
@@ -7192,10 +7168,10 @@
         <v>18</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>237</v>
+        <v>378</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D113" s="17" t="s">
         <v>194</v>
@@ -7206,10 +7182,10 @@
         <v>19</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D114" s="17" t="s">
         <v>193</v>
@@ -7220,10 +7196,10 @@
         <v>20</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>160</v>
@@ -7234,10 +7210,10 @@
         <v>21</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C116" s="26" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="D116" s="18" t="s">
         <v>196</v>
@@ -7248,10 +7224,10 @@
         <v>22</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D117" s="18" t="s">
         <v>195</v>
@@ -7262,10 +7238,10 @@
         <v>23</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D118" s="12" t="s">
         <v>183</v>
@@ -7276,10 +7252,10 @@
         <v>24</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D119" s="18" t="s">
         <v>197</v>
@@ -7290,10 +7266,10 @@
         <v>25</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="D120" s="27" t="s">
         <v>216</v>
@@ -7304,10 +7280,10 @@
         <v>26</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D121" s="11" t="s">
         <v>172</v>
@@ -7318,10 +7294,10 @@
         <v>26</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D122" s="36" t="s">
         <v>198</v>
@@ -7332,10 +7308,10 @@
         <v>26</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>237</v>
+        <v>378</v>
       </c>
       <c r="C123" s="39" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D123" s="36" t="s">
         <v>199</v>
@@ -7346,10 +7322,10 @@
         <v>27</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C124" s="40" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="D124" s="20" t="s">
         <v>200</v>
@@ -7360,10 +7336,10 @@
         <v>27</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C125" s="39" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="D125" s="21" t="s">
         <v>201</v>
@@ -7374,10 +7350,10 @@
         <v>28</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C126" s="44" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="D126" s="27" t="s">
         <v>213</v>
@@ -7388,10 +7364,10 @@
         <v>29</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C127" s="45" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="D127" s="22" t="s">
         <v>202</v>
@@ -7402,10 +7378,10 @@
         <v>29</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C128" s="46" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="D128" s="11" t="s">
         <v>173</v>
@@ -7416,10 +7392,10 @@
         <v>30</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>236</v>
+        <v>377</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="D129" s="22" t="s">
         <v>203</v>
@@ -7430,10 +7406,10 @@
         <v>31</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="D130" s="22" t="s">
         <v>204</v>
@@ -7444,10 +7420,10 @@
         <v>128</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="D131" s="22" t="s">
         <v>207</v>
@@ -7458,10 +7434,10 @@
         <v>129</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D132" s="22" t="s">
         <v>208</v>
@@ -7472,10 +7448,10 @@
         <v>130</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C133" s="35" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D133" s="22" t="s">
         <v>206</v>
@@ -7486,10 +7462,10 @@
         <v>130</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C134" s="35" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D134" s="34" t="s">
         <v>226</v>
@@ -7500,10 +7476,10 @@
         <v>131</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C135" s="36" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="D135" s="22" t="s">
         <v>205</v>
@@ -7514,10 +7490,10 @@
         <v>131</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C136" s="36" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D136" s="36" t="s">
         <v>227</v>
@@ -7528,10 +7504,10 @@
         <v>132</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D137" s="30" t="s">
         <v>209</v>
@@ -7542,10 +7518,10 @@
         <v>133</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D138" s="24" t="s">
         <v>210</v>
@@ -7556,10 +7532,10 @@
         <v>134</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C139" s="28" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D139" s="24" t="s">
         <v>211</v>
@@ -7570,10 +7546,10 @@
         <v>135</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C140" s="28" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D140" s="30" t="s">
         <v>212</v>
@@ -7584,10 +7560,10 @@
         <v>136</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C141" s="28" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D141" s="27" t="s">
         <v>215</v>
@@ -7598,10 +7574,10 @@
         <v>137</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C142" s="33" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D142" s="27" t="s">
         <v>214</v>
@@ -7612,10 +7588,10 @@
         <v>137</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C143" s="48" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D143" s="30" t="s">
         <v>220</v>
@@ -7626,10 +7602,10 @@
         <v>138</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C144" s="47" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D144" s="47" t="s">
         <v>234</v>
@@ -7640,10 +7616,10 @@
         <v>139</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D145" s="29" t="s">
         <v>217</v>
@@ -7654,10 +7630,10 @@
         <v>140</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C146" s="32" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="D146" s="31" t="s">
         <v>223</v>
@@ -7668,10 +7644,10 @@
         <v>141</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C147" s="33" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D147" s="30" t="s">
         <v>218</v>
@@ -7682,10 +7658,10 @@
         <v>141</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C148" s="33" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="D148" s="32" t="s">
         <v>224</v>
@@ -7696,10 +7672,10 @@
         <v>142</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C149" s="33" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D149" s="30" t="s">
         <v>219</v>
@@ -7710,10 +7686,10 @@
         <v>142</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C150" s="33" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D150" s="31" t="s">
         <v>221</v>
@@ -7724,10 +7700,10 @@
         <v>143</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="C151" s="33" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="D151" s="31" t="s">
         <v>222</v>
@@ -7738,10 +7714,10 @@
         <v>144</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C152" s="38" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D152" s="32" t="s">
         <v>225</v>
@@ -7752,10 +7728,10 @@
         <v>145</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C153" s="38" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D153" s="37" t="s">
         <v>229</v>
@@ -7766,10 +7742,10 @@
         <v>146</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>251</v>
+        <v>377</v>
       </c>
       <c r="C154" s="42" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="D154" s="47" t="s">
         <v>235</v>
@@ -7780,10 +7756,10 @@
         <v>147</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C155" s="42" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="D155" s="41" t="s">
         <v>230</v>
@@ -7794,10 +7770,10 @@
         <v>148</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>252</v>
+        <v>377</v>
       </c>
       <c r="C156" s="42" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D156" s="41" t="s">
         <v>231</v>
@@ -7808,10 +7784,10 @@
         <v>149</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>253</v>
+        <v>377</v>
       </c>
       <c r="C157" s="50" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D157" s="37" t="s">
         <v>228</v>
@@ -7822,13 +7798,13 @@
         <v>150</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C158" s="50" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D158" s="49" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -7836,10 +7812,10 @@
         <v>151</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C159" s="43" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D159" s="43" t="s">
         <v>232</v>
@@ -7850,13 +7826,13 @@
         <v>152</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C160" s="38" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D160" s="49" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -7864,13 +7840,13 @@
         <v>153</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C161" s="50" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D161" s="49" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -7878,13 +7854,13 @@
         <v>154</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C162" s="43" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="D162" s="52" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -7892,13 +7868,13 @@
         <v>155</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>265</v>
+        <v>377</v>
       </c>
       <c r="C163" s="50" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="D163" s="53" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -7906,13 +7882,13 @@
         <v>156</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C164" s="18" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D164" s="54" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -7920,13 +7896,13 @@
         <v>157</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="C165" s="25" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D165" s="58" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -7934,447 +7910,447 @@
         <v>158</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>300</v>
+        <v>377</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D166" s="56" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C167" s="32" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D167" s="56" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C168" s="32" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="D168" s="56" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C169" s="33" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D169" s="56" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C170" s="29" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D170" s="57" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C171" s="15" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D171" s="56" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D172" s="56" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C173" s="33" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D173" s="56" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C174" s="32" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="D174" s="56" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C175" s="51" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D175" s="56" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C176" s="29" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D176" s="56" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C177" s="28" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D177" s="56" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C178" s="39" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="D178" s="56" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C179" s="40" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="D179" s="56" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C180" s="44" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="D180" s="58" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C181" s="45" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="D181" s="56" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C182" s="28" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D182" s="56" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C183" s="51" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D183" s="56" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D184" s="55" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D185" s="59" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C186" s="38" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D186" s="59" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C187" s="15" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D187" s="59" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C188" s="33" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="D188" s="60" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C189" s="38" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D189" s="60" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C190" s="61" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="D190" s="60" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C191" s="23" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="D191" s="62" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C192" s="63" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="D192" s="62" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C193" s="63" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="D193" s="62" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C194" s="28" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D194" s="62" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C195" s="64" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D195" s="64" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C196" s="64" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D196" s="64" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>233</v>
+        <v>377</v>
       </c>
       <c r="C197" s="64" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D197" s="64" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">

--- a/files/Plan.xlsx
+++ b/files/Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharmProject\Ogorod\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585AA8F8-A7CD-46D4-BD2C-2353F92EAD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473D492C-0A3E-47AB-BC0B-C4B6957E7DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="389">
   <si>
     <t>Дата</t>
   </si>
@@ -5061,17 +5061,354 @@
   <si>
     <t>15:00:00</t>
   </si>
+  <si>
+    <t>02-07-2022</t>
+  </si>
+  <si>
+    <t>/app/img/baklazan_2.jpg</t>
+  </si>
+  <si>
+    <t>03-07-2022</t>
+  </si>
+  <si>
+    <t>/app/img/baklazan_3.jpg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>🍆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ухаживаем за баклажанами на грядке.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>🍆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Температурный режим.
+Оптимальные температуры для роста: почва от +16 до +18, днем от +18 до +24, ночью +15 до +18. Баклажаны плохо растут при моросящих дождях, пониженной температуре ниже +15.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>🍆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Полив.
+Полив осуществляется только теплой водой и под корень. Первый раз поливают через 10 дней после высадки рассады в грунт (в жаркую погоду через 7 дней). 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>🍆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Поливают баклажаны 1-2 раза в неделю. В жаркую погоду – через день. 
+Увлажнять землю необходимо на глубину до 20 см. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>🍆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ухаживаем за баклажанами на грядке.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>🍆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Рыхление.
+После полива образуется корка, которая препятствует проникновению воздуха к корням. Эту корку необходимо периодически рыхлить (идеально после каждого полива).  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>🍆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Формирование.
+Низкорослые баклажаны и баклажаны раннего срока созревания формировать не надо. Формируем высокорослые сорта. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>🍆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Формировать можно в один, два, три стебля – чем южнее регион, тем больше стеблей растение может прокормить. При формировании в один стебель необходимо удалить все лишние побеги – и боковые (из пазух листьев) и растущие из земли.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">🍆 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ухаживанием за баклажанами на грядке.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>🍆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Подкормка.
+Первую подкормку баклажанов проводят через 2 недели после высадки рассады – можно использовать любое комплексное удобрение.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>🍆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Во время цветения проводим вторую подкормку. Теперь важно подкормить баклажаны фосфорными и калийными удобрениями.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>🍆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> С появлением первых плодов можно подкормить третий раз. Это может быть настой сорняков, комплекс из азофоски, удобрения с микроэлементами.  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>🍆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> И четвертую подкормку можно осуществить за 3-4 недели до сбора урожая – под каждый куст по одному стакану раствора (1 ст. ложка суперфосфата, 1 ст. ложка калийной соли на 10 литров воды).</t>
+    </r>
+  </si>
+  <si>
+    <t>/app/img/baklazan_4.jpg</t>
+  </si>
+  <si>
+    <t>04-07-2022</t>
+  </si>
+  <si>
+    <t>06:15:00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="54" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5532,10 +5869,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5547,11 +5884,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5595,6 +5935,9 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5604,16 +5947,13 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5625,13 +5965,13 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5640,10 +5980,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5652,22 +5992,25 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5676,37 +6019,37 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="50" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5718,13 +6061,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -6007,10 +6350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D198"/>
+  <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B192" sqref="B192"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8064,7 +8407,7 @@
         <v>249</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="C177" s="28" t="s">
         <v>351</v>
@@ -8346,7 +8689,7 @@
       <c r="B197" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C197" s="64" t="s">
+      <c r="C197" s="66" t="s">
         <v>376</v>
       </c>
       <c r="D197" s="64" t="s">
@@ -8354,11 +8697,50 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D198" s="64"/>
+      <c r="A198" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C198" s="67" t="s">
+        <v>380</v>
+      </c>
+      <c r="D198" s="66" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C199" s="67" t="s">
+        <v>382</v>
+      </c>
+      <c r="D199" s="66" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C200" s="67" t="s">
+        <v>386</v>
+      </c>
+      <c r="D200" s="66" t="s">
+        <v>385</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D198" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <phoneticPr fontId="47" type="noConversion"/>
+  <phoneticPr fontId="48" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/files/Plan.xlsx
+++ b/files/Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharmProject\Ogorod\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473D492C-0A3E-47AB-BC0B-C4B6957E7DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E617FA-2DFD-49B6-9786-927E6A41AFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="390">
   <si>
     <t>Дата</t>
   </si>
@@ -5388,19 +5388,38 @@
     <t>04-07-2022</t>
   </si>
   <si>
-    <t>06:15:00</t>
+    <t>/app/ogurzi_10.jpg</t>
+  </si>
+  <si>
+    <t>08:00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="55" x14ac:knownFonts="1">
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5869,10 +5888,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5884,11 +5903,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5929,28 +5954,28 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5959,19 +5984,22 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5980,10 +6008,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5992,7 +6020,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6001,13 +6029,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6016,19 +6044,19 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="53" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="51" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6037,37 +6065,37 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -6353,7 +6381,7 @@
   <dimension ref="A1:D200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="C177" sqref="C177"/>
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8311,7 +8339,7 @@
       <c r="B170" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C170" s="29" t="s">
+      <c r="C170" s="70" t="s">
         <v>373</v>
       </c>
       <c r="D170" s="57" t="s">
@@ -8395,7 +8423,7 @@
       <c r="B176" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C176" s="29" t="s">
+      <c r="C176" s="69" t="s">
         <v>373</v>
       </c>
       <c r="D176" s="56" t="s">
@@ -8407,10 +8435,10 @@
         <v>249</v>
       </c>
       <c r="B177" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C177" s="68" t="s">
         <v>388</v>
-      </c>
-      <c r="C177" s="28" t="s">
-        <v>351</v>
       </c>
       <c r="D177" s="56" t="s">
         <v>271</v>
@@ -8423,7 +8451,7 @@
       <c r="B178" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C178" s="39" t="s">
+      <c r="C178" s="69" t="s">
         <v>337</v>
       </c>
       <c r="D178" s="56" t="s">
@@ -8740,7 +8768,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D198" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <phoneticPr fontId="48" type="noConversion"/>
+  <phoneticPr fontId="50" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/files/Plan.xlsx
+++ b/files/Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharmProject\Ogorod\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E617FA-2DFD-49B6-9786-927E6A41AFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9A7DBC-AA49-47F2-B3C3-C5FA885E3F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="389">
   <si>
     <t>Дата</t>
   </si>
@@ -5388,10 +5388,7 @@
     <t>04-07-2022</t>
   </si>
   <si>
-    <t>/app/ogurzi_10.jpg</t>
-  </si>
-  <si>
-    <t>08:00:00</t>
+    <t>08:30:00</t>
   </si>
 </sst>
 </file>
@@ -5888,7 +5885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6089,13 +6086,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -8339,7 +8339,7 @@
       <c r="B170" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C170" s="70" t="s">
+      <c r="C170" s="69" t="s">
         <v>373</v>
       </c>
       <c r="D170" s="57" t="s">
@@ -8423,7 +8423,7 @@
       <c r="B176" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C176" s="69" t="s">
+      <c r="C176" s="70" t="s">
         <v>373</v>
       </c>
       <c r="D176" s="56" t="s">
@@ -8435,10 +8435,10 @@
         <v>249</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="C177" s="68" t="s">
         <v>388</v>
+      </c>
+      <c r="C177" s="71" t="s">
+        <v>351</v>
       </c>
       <c r="D177" s="56" t="s">
         <v>271</v>
@@ -8451,7 +8451,7 @@
       <c r="B178" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C178" s="69" t="s">
+      <c r="C178" s="68" t="s">
         <v>337</v>
       </c>
       <c r="D178" s="56" t="s">

--- a/files/Plan.xlsx
+++ b/files/Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharmProject\Ogorod\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9A7DBC-AA49-47F2-B3C3-C5FA885E3F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F251C34-C71D-4E61-A3E0-EE60A33D3196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="388">
   <si>
     <t>Дата</t>
   </si>
@@ -911,32 +911,8 @@
     <t>09-06-2022</t>
   </si>
   <si>
-    <t>10-06-2023</t>
-  </si>
-  <si>
-    <t>11-06-2024</t>
-  </si>
-  <si>
-    <t>12-06-2025</t>
-  </si>
-  <si>
     <t>Белокочанную капусту в открытом грунте обильно поливают 1 раз в 5-6 дней. В жаркую погоду – 1 раз в 2-3 дня.
 Уход за сельдереем заключается в прополках, своевременных поливах, рыхлениях и подкормках. Поскольку сельдерей влаголюбив, его полив осуществляют из расчета 20-25 л воды на 1 м² в неделю. Не допускайте пересыхания почвы. В засуху придется поливать сельдерей ежедневно.</t>
-  </si>
-  <si>
-    <t>13-06-2025</t>
-  </si>
-  <si>
-    <t>14-06-2025</t>
-  </si>
-  <si>
-    <t>15-06-2025</t>
-  </si>
-  <si>
-    <t>16-06-2025</t>
-  </si>
-  <si>
-    <t>17-06-2025</t>
   </si>
   <si>
     <r>
@@ -5388,19 +5364,48 @@
     <t>04-07-2022</t>
   </si>
   <si>
-    <t>08:30:00</t>
+    <t>10-06-2022</t>
+  </si>
+  <si>
+    <t>11-06-2022</t>
+  </si>
+  <si>
+    <t>12-06-2022</t>
+  </si>
+  <si>
+    <t>13-06-2022</t>
+  </si>
+  <si>
+    <t>14-06-2022</t>
+  </si>
+  <si>
+    <t>15-06-2022</t>
+  </si>
+  <si>
+    <t>16-06-2022</t>
+  </si>
+  <si>
+    <t>17-06-2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="57" x14ac:knownFonts="1">
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5885,10 +5890,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5900,11 +5905,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5948,6 +5956,9 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5957,16 +5968,13 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5978,13 +5986,13 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5993,10 +6001,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6005,22 +6013,25 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6029,37 +6040,37 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="54" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="53" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6071,19 +6082,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6092,10 +6100,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -6380,8 +6388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177:B178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6779,10 +6787,10 @@
         <v>80</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C48" s="65" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>165</v>
@@ -6801,10 +6809,10 @@
         <v>82</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>127</v>
@@ -6823,10 +6831,10 @@
         <v>84</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>168</v>
@@ -6853,10 +6861,10 @@
         <v>87</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>169</v>
@@ -6867,10 +6875,10 @@
         <v>88</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>166</v>
@@ -6881,10 +6889,10 @@
         <v>89</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>124</v>
@@ -6895,10 +6903,10 @@
         <v>90</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>127</v>
@@ -6917,10 +6925,10 @@
         <v>92</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>125</v>
@@ -6947,10 +6955,10 @@
         <v>95</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>167</v>
@@ -6961,10 +6969,10 @@
         <v>96</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>161</v>
@@ -6975,10 +6983,10 @@
         <v>97</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>126</v>
@@ -6989,10 +6997,10 @@
         <v>98</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>170</v>
@@ -7011,10 +7019,10 @@
         <v>100</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>167</v>
@@ -7033,10 +7041,10 @@
         <v>102</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>126</v>
@@ -7055,10 +7063,10 @@
         <v>104</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>162</v>
@@ -7069,10 +7077,10 @@
         <v>105</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>167</v>
@@ -7083,10 +7091,10 @@
         <v>106</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>126</v>
@@ -7105,10 +7113,10 @@
         <v>108</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D76" s="11" t="s">
         <v>167</v>
@@ -7127,10 +7135,10 @@
         <v>110</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>171</v>
@@ -7245,10 +7253,10 @@
         <v>164</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>163</v>
@@ -7259,10 +7267,10 @@
         <v>33</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>181</v>
@@ -7276,7 +7284,7 @@
         <v>233</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D94" s="12" t="s">
         <v>177</v>
@@ -7287,10 +7295,10 @@
         <v>32</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D95" s="11" t="s">
         <v>175</v>
@@ -7301,10 +7309,10 @@
         <v>4</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D96" s="12" t="s">
         <v>176</v>
@@ -7315,10 +7323,10 @@
         <v>5</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D97" s="14" t="s">
         <v>186</v>
@@ -7329,10 +7337,10 @@
         <v>6</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D98" s="14" t="s">
         <v>174</v>
@@ -7343,10 +7351,10 @@
         <v>7</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>180</v>
@@ -7357,10 +7365,10 @@
         <v>8</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D100" s="10" t="s">
         <v>163</v>
@@ -7371,10 +7379,10 @@
         <v>9</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D101" s="12" t="s">
         <v>178</v>
@@ -7385,10 +7393,10 @@
         <v>10</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>179</v>
@@ -7399,10 +7407,10 @@
         <v>11</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D103" s="13" t="s">
         <v>185</v>
@@ -7413,10 +7421,10 @@
         <v>12</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>184</v>
@@ -7427,10 +7435,10 @@
         <v>13</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D105" s="15" t="s">
         <v>187</v>
@@ -7441,10 +7449,10 @@
         <v>14</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D106" s="15" t="s">
         <v>188</v>
@@ -7455,10 +7463,10 @@
         <v>15</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D107" s="15" t="s">
         <v>189</v>
@@ -7469,10 +7477,10 @@
         <v>16</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>159</v>
@@ -7486,7 +7494,7 @@
         <v>233</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D109" s="16" t="s">
         <v>191</v>
@@ -7497,10 +7505,10 @@
         <v>17</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D110" s="16" t="s">
         <v>190</v>
@@ -7511,10 +7519,10 @@
         <v>18</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D111" s="17" t="s">
         <v>192</v>
@@ -7528,7 +7536,7 @@
         <v>233</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D112" s="12" t="s">
         <v>182</v>
@@ -7539,10 +7547,10 @@
         <v>18</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D113" s="17" t="s">
         <v>194</v>
@@ -7553,10 +7561,10 @@
         <v>19</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D114" s="17" t="s">
         <v>193</v>
@@ -7567,10 +7575,10 @@
         <v>20</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>160</v>
@@ -7581,10 +7589,10 @@
         <v>21</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C116" s="26" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D116" s="18" t="s">
         <v>196</v>
@@ -7595,10 +7603,10 @@
         <v>22</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D117" s="18" t="s">
         <v>195</v>
@@ -7609,10 +7617,10 @@
         <v>23</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D118" s="12" t="s">
         <v>183</v>
@@ -7623,10 +7631,10 @@
         <v>24</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D119" s="18" t="s">
         <v>197</v>
@@ -7637,10 +7645,10 @@
         <v>25</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D120" s="27" t="s">
         <v>216</v>
@@ -7651,10 +7659,10 @@
         <v>26</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D121" s="11" t="s">
         <v>172</v>
@@ -7668,7 +7676,7 @@
         <v>233</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D122" s="36" t="s">
         <v>198</v>
@@ -7679,10 +7687,10 @@
         <v>26</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C123" s="39" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D123" s="36" t="s">
         <v>199</v>
@@ -7693,10 +7701,10 @@
         <v>27</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C124" s="40" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D124" s="20" t="s">
         <v>200</v>
@@ -7710,7 +7718,7 @@
         <v>233</v>
       </c>
       <c r="C125" s="39" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D125" s="21" t="s">
         <v>201</v>
@@ -7721,10 +7729,10 @@
         <v>28</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C126" s="44" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D126" s="27" t="s">
         <v>213</v>
@@ -7735,10 +7743,10 @@
         <v>29</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C127" s="45" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D127" s="22" t="s">
         <v>202</v>
@@ -7752,7 +7760,7 @@
         <v>233</v>
       </c>
       <c r="C128" s="46" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D128" s="11" t="s">
         <v>173</v>
@@ -7763,10 +7771,10 @@
         <v>30</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D129" s="22" t="s">
         <v>203</v>
@@ -7777,10 +7785,10 @@
         <v>31</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D130" s="22" t="s">
         <v>204</v>
@@ -7791,10 +7799,10 @@
         <v>128</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D131" s="22" t="s">
         <v>207</v>
@@ -7805,10 +7813,10 @@
         <v>129</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D132" s="22" t="s">
         <v>208</v>
@@ -7819,10 +7827,10 @@
         <v>130</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C133" s="35" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D133" s="22" t="s">
         <v>206</v>
@@ -7836,7 +7844,7 @@
         <v>233</v>
       </c>
       <c r="C134" s="35" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D134" s="34" t="s">
         <v>226</v>
@@ -7847,10 +7855,10 @@
         <v>131</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C135" s="36" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D135" s="22" t="s">
         <v>205</v>
@@ -7864,7 +7872,7 @@
         <v>233</v>
       </c>
       <c r="C136" s="36" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D136" s="36" t="s">
         <v>227</v>
@@ -7875,10 +7883,10 @@
         <v>132</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D137" s="30" t="s">
         <v>209</v>
@@ -7889,10 +7897,10 @@
         <v>133</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D138" s="24" t="s">
         <v>210</v>
@@ -7903,10 +7911,10 @@
         <v>134</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C139" s="28" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D139" s="24" t="s">
         <v>211</v>
@@ -7917,10 +7925,10 @@
         <v>135</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C140" s="28" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D140" s="30" t="s">
         <v>212</v>
@@ -7931,10 +7939,10 @@
         <v>136</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C141" s="28" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D141" s="27" t="s">
         <v>215</v>
@@ -7945,10 +7953,10 @@
         <v>137</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C142" s="33" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D142" s="27" t="s">
         <v>214</v>
@@ -7962,7 +7970,7 @@
         <v>233</v>
       </c>
       <c r="C143" s="48" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D143" s="30" t="s">
         <v>220</v>
@@ -7973,10 +7981,10 @@
         <v>138</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C144" s="47" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D144" s="47" t="s">
         <v>234</v>
@@ -7987,10 +7995,10 @@
         <v>139</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D145" s="29" t="s">
         <v>217</v>
@@ -8001,10 +8009,10 @@
         <v>140</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C146" s="32" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D146" s="31" t="s">
         <v>223</v>
@@ -8015,10 +8023,10 @@
         <v>141</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C147" s="33" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D147" s="30" t="s">
         <v>218</v>
@@ -8032,7 +8040,7 @@
         <v>233</v>
       </c>
       <c r="C148" s="33" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D148" s="32" t="s">
         <v>224</v>
@@ -8043,10 +8051,10 @@
         <v>142</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C149" s="33" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D149" s="30" t="s">
         <v>219</v>
@@ -8060,7 +8068,7 @@
         <v>233</v>
       </c>
       <c r="C150" s="33" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D150" s="31" t="s">
         <v>221</v>
@@ -8071,10 +8079,10 @@
         <v>143</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C151" s="33" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D151" s="31" t="s">
         <v>222</v>
@@ -8085,10 +8093,10 @@
         <v>144</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C152" s="38" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D152" s="32" t="s">
         <v>225</v>
@@ -8099,10 +8107,10 @@
         <v>145</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C153" s="38" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D153" s="37" t="s">
         <v>229</v>
@@ -8113,10 +8121,10 @@
         <v>146</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C154" s="42" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D154" s="47" t="s">
         <v>235</v>
@@ -8127,10 +8135,10 @@
         <v>147</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C155" s="42" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D155" s="41" t="s">
         <v>230</v>
@@ -8141,10 +8149,10 @@
         <v>148</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C156" s="42" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D156" s="41" t="s">
         <v>231</v>
@@ -8155,10 +8163,10 @@
         <v>149</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C157" s="50" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="D157" s="37" t="s">
         <v>228</v>
@@ -8169,10 +8177,10 @@
         <v>150</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C158" s="50" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D158" s="49" t="s">
         <v>237</v>
@@ -8183,10 +8191,10 @@
         <v>151</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C159" s="43" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D159" s="43" t="s">
         <v>232</v>
@@ -8197,10 +8205,10 @@
         <v>152</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C160" s="38" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D160" s="49" t="s">
         <v>236</v>
@@ -8211,10 +8219,10 @@
         <v>153</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C161" s="50" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D161" s="49" t="s">
         <v>238</v>
@@ -8225,13 +8233,13 @@
         <v>154</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C162" s="43" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D162" s="52" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -8239,13 +8247,13 @@
         <v>155</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C163" s="50" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D163" s="53" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -8253,13 +8261,13 @@
         <v>156</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C164" s="18" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D164" s="54" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -8267,13 +8275,13 @@
         <v>157</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C165" s="25" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D165" s="58" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -8281,13 +8289,13 @@
         <v>158</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D166" s="56" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -8295,13 +8303,13 @@
         <v>239</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C167" s="32" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D167" s="56" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -8309,13 +8317,13 @@
         <v>240</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C168" s="32" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D168" s="56" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -8323,13 +8331,13 @@
         <v>241</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C169" s="33" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D169" s="56" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -8337,13 +8345,13 @@
         <v>242</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="C170" s="69" t="s">
-        <v>373</v>
+        <v>369</v>
+      </c>
+      <c r="C170" s="68" t="s">
+        <v>365</v>
       </c>
       <c r="D170" s="57" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -8351,13 +8359,13 @@
         <v>243</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C171" s="15" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D171" s="56" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -8365,13 +8373,13 @@
         <v>244</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D172" s="56" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -8379,13 +8387,13 @@
         <v>245</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C173" s="33" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D173" s="56" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -8393,13 +8401,13 @@
         <v>246</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C174" s="32" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D174" s="56" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -8407,368 +8415,368 @@
         <v>247</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C175" s="51" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D175" s="56" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>248</v>
+        <v>380</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="C176" s="70" t="s">
-        <v>373</v>
-      </c>
-      <c r="D176" s="56" t="s">
-        <v>270</v>
+        <v>369</v>
+      </c>
+      <c r="C176" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="D176" s="70" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>249</v>
+        <v>381</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="C177" s="71" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D177" s="56" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>250</v>
+        <v>382</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="C178" s="68" t="s">
-        <v>337</v>
+        <v>369</v>
+      </c>
+      <c r="C178" s="72" t="s">
+        <v>329</v>
       </c>
       <c r="D178" s="56" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>252</v>
+        <v>383</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C179" s="40" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D179" s="56" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>253</v>
+        <v>384</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C180" s="44" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D180" s="58" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>254</v>
+        <v>385</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C181" s="45" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D181" s="56" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>255</v>
+        <v>386</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C182" s="28" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D182" s="56" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>256</v>
+        <v>387</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C183" s="51" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D183" s="56" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D184" s="55" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D185" s="59" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C186" s="38" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D186" s="59" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C187" s="15" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D187" s="59" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C188" s="33" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D188" s="60" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C189" s="38" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D189" s="60" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C190" s="61" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D190" s="60" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C191" s="23" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D191" s="62" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C192" s="63" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D192" s="62" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C193" s="63" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D193" s="62" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C194" s="28" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D194" s="62" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C195" s="64" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D195" s="64" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C196" s="64" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D196" s="64" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C197" s="66" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D197" s="64" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C198" s="67" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D198" s="66" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C199" s="67" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D199" s="66" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B200" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C200" s="67" t="s">
+        <v>378</v>
+      </c>
+      <c r="D200" s="66" t="s">
         <v>377</v>
-      </c>
-      <c r="C200" s="67" t="s">
-        <v>386</v>
-      </c>
-      <c r="D200" s="66" t="s">
-        <v>385</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D198" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <phoneticPr fontId="50" type="noConversion"/>
+  <phoneticPr fontId="51" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/files/Plan.xlsx
+++ b/files/Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharmProject\Ogorod\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F251C34-C71D-4E61-A3E0-EE60A33D3196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AF9900-69F6-440A-8F80-15834B9D747E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5175" yWindow="4095" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Moscow" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="396">
   <si>
     <t>Дата</t>
   </si>
@@ -3614,145 +3614,6 @@
     <t>20-06-2022</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>❎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Уход за капустой в открытом грунте.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>❌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Первое время после высадки в грунт рассаду осыпают золой с добавлением табачной пыли – защита от слизней и блошек. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>❌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Тлю и гусениц можно уничтожить, опрыскивая следующим настоем: 2 кг томатной ботвы заливают 5 литрами воды, настаивают 3-4 часа, затем в течение 3 часов кипятят, дают остыть, процеживают и разводят водой 1:2. Чтобы настой «клеился» к листьям, а не стекал на землю, добавьте в него 20-30 г тертого дегтярного мыла. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>❌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Можно использовать в борьбе с тлей и гусеницами настой луковой шелухи: литровую банку шелухи заливают двумя литрами кипятка и настаивают в течение двух дней, затем процеживают, добавляют еще 2 л воды и столовую ложку жидкого мыла или средства для мытья посуды. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>❌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Для борьбы с личинками майского жука, совки или капустной мухи на участок привлекают муравьев. Можно прикопать баночку с разведенным водой медом или вареньем. Привлеченные сладким черные муравьи заодно съедят и личинки. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>❌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> В качестве профилактики можно разместить на участке с капустой и вокруг бархатцы, мяту, шалфей, кинзу, базилик, розмарин и другие пряные растения. Терпкий аромат отпугнет тлю, бабочек, слизней, блошек и привлечет на борьбу с ними их вечных врагов – божьих коровок, златоглазок, жука-наездника и других. </t>
-    </r>
-  </si>
-  <si>
     <t>21-06-2022</t>
   </si>
   <si>
@@ -5364,6 +5225,12 @@
     <t>04-07-2022</t>
   </si>
   <si>
+    <t>08:30:00</t>
+  </si>
+  <si>
+    <t>img/ogurzi_5.jpg</t>
+  </si>
+  <si>
     <t>10-06-2022</t>
   </si>
   <si>
@@ -5386,18 +5253,220 @@
   </si>
   <si>
     <t>17-06-2022</t>
+  </si>
+  <si>
+    <t>17:13:00</t>
+  </si>
+  <si>
+    <t>05-07-2022</t>
+  </si>
+  <si>
+    <t>06-07-2022</t>
+  </si>
+  <si>
+    <t>07-07-2022</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>❎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Уход за капустой в открытом грунте.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>❌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Первое время после высадки в грунт рассаду осыпают золой с добавлением табачной пыли – защита от слизней и блошек. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">❌ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Тлю и гусениц можно уничтожить, опрыскивая следующим настоем: 2 кг томатной ботвы заливают 5 литрами воды, настаивают 3-4 часа, затем в течение 3 часов кипятят, дают остыть, процеживают и разводят водой 1:2. Чтобы настой «клеился» к листьям, а не стекал на землю, добавьте в него 20-30 г тертого дегтярного мыла. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">❌ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Можно использовать в борьбе с тлей и гусеницами настой луковой шелухи: литровую банку шелухи заливают двумя литрами кипятка и настаивают в течение двух дней, затем процеживают, добавляют еще 2 л воды и столовую ложку жидкого мыла или средства для мытья посуды. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>❎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Уход за капустой в открытом грунте.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>❌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Для борьбы с личинками майского жука, совки или капустной мухи на участок привлекают муравьев. Можно прикопать баночку с разведенным водой медом или вареньем. Привлеченные сладким черные муравьи заодно съедят и личинки. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>❌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> В качестве профилактики можно разместить на участке с капустой и вокруг бархатцы, мяту, шалфей, кинзу, базилик, розмарин и другие пряные растения. Терпкий аромат отпугнет тлю, бабочек, слизней, блошек и привлечет на борьбу с ними их вечных врагов – божьих коровок, златоглазок, жука-наездника и других. </t>
+    </r>
+  </si>
+  <si>
+    <t>08-07-2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="58" x14ac:knownFonts="1">
+  <fonts count="61" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5890,10 +5959,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5905,11 +5974,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="52" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5947,19 +6025,19 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5971,10 +6049,16 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5987,9 +6071,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6010,46 +6091,46 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="57" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="54" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6058,19 +6139,19 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6085,25 +6166,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -6386,10 +6461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D200"/>
+  <dimension ref="A1:D204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177:B178"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6787,10 +6862,10 @@
         <v>80</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C48" s="65" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>165</v>
@@ -6809,10 +6884,10 @@
         <v>82</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>127</v>
@@ -6831,10 +6906,10 @@
         <v>84</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>168</v>
@@ -6861,10 +6936,10 @@
         <v>87</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>169</v>
@@ -6875,10 +6950,10 @@
         <v>88</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>166</v>
@@ -6889,10 +6964,10 @@
         <v>89</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>124</v>
@@ -6903,10 +6978,10 @@
         <v>90</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>127</v>
@@ -6925,10 +7000,10 @@
         <v>92</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>125</v>
@@ -6955,10 +7030,10 @@
         <v>95</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>167</v>
@@ -6969,10 +7044,10 @@
         <v>96</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>161</v>
@@ -6983,10 +7058,10 @@
         <v>97</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>126</v>
@@ -6997,10 +7072,10 @@
         <v>98</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>170</v>
@@ -7019,10 +7094,10 @@
         <v>100</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>167</v>
@@ -7041,10 +7116,10 @@
         <v>102</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>126</v>
@@ -7063,10 +7138,10 @@
         <v>104</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>162</v>
@@ -7077,10 +7152,10 @@
         <v>105</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>167</v>
@@ -7091,10 +7166,10 @@
         <v>106</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>126</v>
@@ -7113,10 +7188,10 @@
         <v>108</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D76" s="11" t="s">
         <v>167</v>
@@ -7135,10 +7210,10 @@
         <v>110</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>171</v>
@@ -7253,10 +7328,10 @@
         <v>164</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>163</v>
@@ -7267,10 +7342,10 @@
         <v>33</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>181</v>
@@ -7284,7 +7359,7 @@
         <v>233</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D94" s="12" t="s">
         <v>177</v>
@@ -7295,10 +7370,10 @@
         <v>32</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D95" s="11" t="s">
         <v>175</v>
@@ -7309,10 +7384,10 @@
         <v>4</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D96" s="12" t="s">
         <v>176</v>
@@ -7323,10 +7398,10 @@
         <v>5</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D97" s="14" t="s">
         <v>186</v>
@@ -7337,10 +7412,10 @@
         <v>6</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D98" s="14" t="s">
         <v>174</v>
@@ -7351,10 +7426,10 @@
         <v>7</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>180</v>
@@ -7365,10 +7440,10 @@
         <v>8</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D100" s="10" t="s">
         <v>163</v>
@@ -7379,10 +7454,10 @@
         <v>9</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D101" s="12" t="s">
         <v>178</v>
@@ -7393,10 +7468,10 @@
         <v>10</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>179</v>
@@ -7407,10 +7482,10 @@
         <v>11</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D103" s="13" t="s">
         <v>185</v>
@@ -7421,10 +7496,10 @@
         <v>12</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>184</v>
@@ -7435,10 +7510,10 @@
         <v>13</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D105" s="15" t="s">
         <v>187</v>
@@ -7449,10 +7524,10 @@
         <v>14</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D106" s="15" t="s">
         <v>188</v>
@@ -7463,10 +7538,10 @@
         <v>15</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D107" s="15" t="s">
         <v>189</v>
@@ -7477,10 +7552,10 @@
         <v>16</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>159</v>
@@ -7494,7 +7569,7 @@
         <v>233</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D109" s="16" t="s">
         <v>191</v>
@@ -7505,10 +7580,10 @@
         <v>17</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D110" s="16" t="s">
         <v>190</v>
@@ -7519,10 +7594,10 @@
         <v>18</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D111" s="17" t="s">
         <v>192</v>
@@ -7536,7 +7611,7 @@
         <v>233</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D112" s="12" t="s">
         <v>182</v>
@@ -7547,10 +7622,10 @@
         <v>18</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D113" s="17" t="s">
         <v>194</v>
@@ -7561,10 +7636,10 @@
         <v>19</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D114" s="17" t="s">
         <v>193</v>
@@ -7575,10 +7650,10 @@
         <v>20</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>160</v>
@@ -7589,10 +7664,10 @@
         <v>21</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C116" s="26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D116" s="18" t="s">
         <v>196</v>
@@ -7603,10 +7678,10 @@
         <v>22</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D117" s="18" t="s">
         <v>195</v>
@@ -7617,10 +7692,10 @@
         <v>23</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D118" s="12" t="s">
         <v>183</v>
@@ -7631,10 +7706,10 @@
         <v>24</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D119" s="18" t="s">
         <v>197</v>
@@ -7645,10 +7720,10 @@
         <v>25</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D120" s="27" t="s">
         <v>216</v>
@@ -7659,10 +7734,10 @@
         <v>26</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D121" s="11" t="s">
         <v>172</v>
@@ -7676,7 +7751,7 @@
         <v>233</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D122" s="36" t="s">
         <v>198</v>
@@ -7687,10 +7762,10 @@
         <v>26</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C123" s="39" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D123" s="36" t="s">
         <v>199</v>
@@ -7701,10 +7776,10 @@
         <v>27</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C124" s="40" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D124" s="20" t="s">
         <v>200</v>
@@ -7718,7 +7793,7 @@
         <v>233</v>
       </c>
       <c r="C125" s="39" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D125" s="21" t="s">
         <v>201</v>
@@ -7729,10 +7804,10 @@
         <v>28</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C126" s="44" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D126" s="27" t="s">
         <v>213</v>
@@ -7743,10 +7818,10 @@
         <v>29</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C127" s="45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D127" s="22" t="s">
         <v>202</v>
@@ -7760,7 +7835,7 @@
         <v>233</v>
       </c>
       <c r="C128" s="46" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D128" s="11" t="s">
         <v>173</v>
@@ -7771,10 +7846,10 @@
         <v>30</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D129" s="22" t="s">
         <v>203</v>
@@ -7785,10 +7860,10 @@
         <v>31</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D130" s="22" t="s">
         <v>204</v>
@@ -7799,10 +7874,10 @@
         <v>128</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D131" s="22" t="s">
         <v>207</v>
@@ -7813,10 +7888,10 @@
         <v>129</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D132" s="22" t="s">
         <v>208</v>
@@ -7827,10 +7902,10 @@
         <v>130</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C133" s="35" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D133" s="22" t="s">
         <v>206</v>
@@ -7844,7 +7919,7 @@
         <v>233</v>
       </c>
       <c r="C134" s="35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D134" s="34" t="s">
         <v>226</v>
@@ -7855,10 +7930,10 @@
         <v>131</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C135" s="36" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D135" s="22" t="s">
         <v>205</v>
@@ -7872,7 +7947,7 @@
         <v>233</v>
       </c>
       <c r="C136" s="36" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D136" s="36" t="s">
         <v>227</v>
@@ -7883,10 +7958,10 @@
         <v>132</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D137" s="30" t="s">
         <v>209</v>
@@ -7897,10 +7972,10 @@
         <v>133</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D138" s="24" t="s">
         <v>210</v>
@@ -7911,10 +7986,10 @@
         <v>134</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C139" s="28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D139" s="24" t="s">
         <v>211</v>
@@ -7925,10 +8000,10 @@
         <v>135</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C140" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D140" s="30" t="s">
         <v>212</v>
@@ -7939,10 +8014,10 @@
         <v>136</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C141" s="28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D141" s="27" t="s">
         <v>215</v>
@@ -7953,10 +8028,10 @@
         <v>137</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C142" s="33" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D142" s="27" t="s">
         <v>214</v>
@@ -7970,7 +8045,7 @@
         <v>233</v>
       </c>
       <c r="C143" s="48" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D143" s="30" t="s">
         <v>220</v>
@@ -7981,10 +8056,10 @@
         <v>138</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C144" s="47" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D144" s="47" t="s">
         <v>234</v>
@@ -7995,10 +8070,10 @@
         <v>139</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D145" s="29" t="s">
         <v>217</v>
@@ -8009,10 +8084,10 @@
         <v>140</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C146" s="32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D146" s="31" t="s">
         <v>223</v>
@@ -8023,10 +8098,10 @@
         <v>141</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C147" s="33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D147" s="30" t="s">
         <v>218</v>
@@ -8040,7 +8115,7 @@
         <v>233</v>
       </c>
       <c r="C148" s="33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D148" s="32" t="s">
         <v>224</v>
@@ -8051,10 +8126,10 @@
         <v>142</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C149" s="33" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D149" s="30" t="s">
         <v>219</v>
@@ -8068,7 +8143,7 @@
         <v>233</v>
       </c>
       <c r="C150" s="33" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D150" s="31" t="s">
         <v>221</v>
@@ -8079,10 +8154,10 @@
         <v>143</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C151" s="33" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D151" s="31" t="s">
         <v>222</v>
@@ -8093,10 +8168,10 @@
         <v>144</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C152" s="38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D152" s="32" t="s">
         <v>225</v>
@@ -8107,10 +8182,10 @@
         <v>145</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C153" s="38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D153" s="37" t="s">
         <v>229</v>
@@ -8121,10 +8196,10 @@
         <v>146</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C154" s="42" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D154" s="47" t="s">
         <v>235</v>
@@ -8135,10 +8210,10 @@
         <v>147</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C155" s="42" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D155" s="41" t="s">
         <v>230</v>
@@ -8149,10 +8224,10 @@
         <v>148</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C156" s="42" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D156" s="41" t="s">
         <v>231</v>
@@ -8163,10 +8238,10 @@
         <v>149</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C157" s="50" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D157" s="37" t="s">
         <v>228</v>
@@ -8177,10 +8252,10 @@
         <v>150</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C158" s="50" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D158" s="49" t="s">
         <v>237</v>
@@ -8191,10 +8266,10 @@
         <v>151</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C159" s="43" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D159" s="43" t="s">
         <v>232</v>
@@ -8205,10 +8280,10 @@
         <v>152</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C160" s="38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D160" s="49" t="s">
         <v>236</v>
@@ -8219,10 +8294,10 @@
         <v>153</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C161" s="50" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D161" s="49" t="s">
         <v>238</v>
@@ -8233,10 +8308,10 @@
         <v>154</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C162" s="43" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D162" s="52" t="s">
         <v>248</v>
@@ -8247,10 +8322,10 @@
         <v>155</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C163" s="50" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D163" s="53" t="s">
         <v>249</v>
@@ -8261,10 +8336,10 @@
         <v>156</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C164" s="18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D164" s="54" t="s">
         <v>250</v>
@@ -8275,10 +8350,10 @@
         <v>157</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C165" s="25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D165" s="58" t="s">
         <v>271</v>
@@ -8289,10 +8364,10 @@
         <v>158</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D166" s="56" t="s">
         <v>252</v>
@@ -8303,10 +8378,10 @@
         <v>239</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C167" s="32" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D167" s="56" t="s">
         <v>253</v>
@@ -8317,10 +8392,10 @@
         <v>240</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C168" s="32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D168" s="56" t="s">
         <v>254</v>
@@ -8331,10 +8406,10 @@
         <v>241</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C169" s="33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D169" s="56" t="s">
         <v>255</v>
@@ -8345,10 +8420,10 @@
         <v>242</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C170" s="68" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D170" s="57" t="s">
         <v>256</v>
@@ -8359,10 +8434,10 @@
         <v>243</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C171" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D171" s="56" t="s">
         <v>257</v>
@@ -8373,10 +8448,10 @@
         <v>244</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D172" s="56" t="s">
         <v>258</v>
@@ -8387,10 +8462,10 @@
         <v>245</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C173" s="33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D173" s="56" t="s">
         <v>259</v>
@@ -8401,10 +8476,10 @@
         <v>246</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C174" s="32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D174" s="56" t="s">
         <v>260</v>
@@ -8415,10 +8490,10 @@
         <v>247</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C175" s="51" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D175" s="56" t="s">
         <v>261</v>
@@ -8426,27 +8501,27 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C176" s="69" t="s">
-        <v>365</v>
-      </c>
-      <c r="D176" s="70" t="s">
+        <v>364</v>
+      </c>
+      <c r="D176" s="71" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="C177" s="71" t="s">
-        <v>343</v>
+        <v>379</v>
+      </c>
+      <c r="C177" s="70" t="s">
+        <v>342</v>
       </c>
       <c r="D177" s="56" t="s">
         <v>263</v>
@@ -8454,27 +8529,27 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="C178" s="72" t="s">
-        <v>329</v>
-      </c>
-      <c r="D178" s="56" t="s">
+        <v>380</v>
+      </c>
+      <c r="D178" s="73" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C179" s="40" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D179" s="56" t="s">
         <v>265</v>
@@ -8482,13 +8557,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C180" s="44" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D180" s="58" t="s">
         <v>266</v>
@@ -8496,13 +8571,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C181" s="45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D181" s="56" t="s">
         <v>267</v>
@@ -8510,13 +8585,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C182" s="28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D182" s="56" t="s">
         <v>268</v>
@@ -8524,13 +8599,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C183" s="51" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D183" s="56" t="s">
         <v>269</v>
@@ -8541,10 +8616,10 @@
         <v>270</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D184" s="55" t="s">
         <v>251</v>
@@ -8555,10 +8630,10 @@
         <v>273</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D185" s="59" t="s">
         <v>272</v>
@@ -8569,10 +8644,10 @@
         <v>275</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C186" s="38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D186" s="59" t="s">
         <v>274</v>
@@ -8580,111 +8655,103 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="C187" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="D187" s="59" t="s">
-        <v>276</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="C187" s="15"/>
+      <c r="D187" s="59"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="C188" s="33" t="s">
-        <v>350</v>
-      </c>
-      <c r="D188" s="60" t="s">
-        <v>278</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="C188" s="33"/>
+      <c r="D188" s="60"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="C189" s="38" t="s">
-        <v>355</v>
-      </c>
-      <c r="D189" s="60" t="s">
-        <v>280</v>
+        <v>368</v>
+      </c>
+      <c r="C189" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="D189" s="74" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="C190" s="61" t="s">
-        <v>366</v>
-      </c>
-      <c r="D190" s="60" t="s">
-        <v>283</v>
+        <v>368</v>
+      </c>
+      <c r="C190" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="D190" s="74" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="C191" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="D191" s="62" t="s">
-        <v>291</v>
+        <v>368</v>
+      </c>
+      <c r="C191" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="D191" s="60" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="C192" s="63" t="s">
-        <v>334</v>
-      </c>
-      <c r="D192" s="62" t="s">
-        <v>285</v>
+        <v>368</v>
+      </c>
+      <c r="C192" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="D192" s="60" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="C193" s="63" t="s">
-        <v>335</v>
-      </c>
-      <c r="D193" s="62" t="s">
-        <v>287</v>
+        <v>368</v>
+      </c>
+      <c r="C193" s="61" t="s">
+        <v>365</v>
+      </c>
+      <c r="D193" s="60" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="C194" s="28" t="s">
-        <v>343</v>
+        <v>368</v>
+      </c>
+      <c r="C194" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D194" s="62" t="s">
         <v>290</v>
@@ -8692,91 +8759,138 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="C195" s="64" t="s">
-        <v>337</v>
-      </c>
-      <c r="D195" s="64" t="s">
-        <v>293</v>
+        <v>368</v>
+      </c>
+      <c r="C195" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="D195" s="62" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="C196" s="64" t="s">
-        <v>367</v>
-      </c>
-      <c r="D196" s="64" t="s">
-        <v>294</v>
+        <v>368</v>
+      </c>
+      <c r="C196" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="D196" s="62" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="C197" s="66" t="s">
-        <v>368</v>
-      </c>
-      <c r="D197" s="64" t="s">
-        <v>296</v>
+        <v>368</v>
+      </c>
+      <c r="C197" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="D197" s="62" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="C198" s="67" t="s">
-        <v>372</v>
-      </c>
-      <c r="D198" s="66" t="s">
-        <v>375</v>
+        <v>368</v>
+      </c>
+      <c r="C198" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="D198" s="64" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="C199" s="67" t="s">
-        <v>374</v>
-      </c>
-      <c r="D199" s="66" t="s">
-        <v>376</v>
+        <v>368</v>
+      </c>
+      <c r="C199" s="64" t="s">
+        <v>366</v>
+      </c>
+      <c r="D199" s="64" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="C200" s="67" t="s">
-        <v>378</v>
-      </c>
-      <c r="D200" s="66" t="s">
+        <v>368</v>
+      </c>
+      <c r="C200" s="66" t="s">
+        <v>367</v>
+      </c>
+      <c r="D200" s="64" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C201" s="67" t="s">
+        <v>371</v>
+      </c>
+      <c r="D201" s="66" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C202" s="67" t="s">
+        <v>373</v>
+      </c>
+      <c r="D202" s="66" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C203" s="67" t="s">
         <v>377</v>
+      </c>
+      <c r="D203" s="66" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="5" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D198" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <phoneticPr fontId="51" type="noConversion"/>
+  <phoneticPr fontId="54" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/files/Plan.xlsx
+++ b/files/Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharmProject\Ogorod\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AF9900-69F6-440A-8F80-15834B9D747E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516C2080-8B92-4DC0-8374-D5B73BD6D494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="4095" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Moscow" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="395">
   <si>
     <t>Дата</t>
   </si>
@@ -4882,9 +4882,6 @@
   </si>
   <si>
     <t>/app/img/tomat_2.jpg</t>
-  </si>
-  <si>
-    <t>/app/img/selderei.jpg</t>
   </si>
   <si>
     <t>/app/img/morkov_2.jpg</t>
@@ -6139,9 +6136,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6179,6 +6173,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -6463,8 +6460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="B209" sqref="B209"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="C194" sqref="C194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6862,9 +6859,9 @@
         <v>80</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C48" s="65" t="s">
+        <v>367</v>
+      </c>
+      <c r="C48" s="64" t="s">
         <v>297</v>
       </c>
       <c r="D48" s="11" t="s">
@@ -6884,7 +6881,7 @@
         <v>82</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>298</v>
@@ -6906,7 +6903,7 @@
         <v>84</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>299</v>
@@ -6936,7 +6933,7 @@
         <v>87</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>299</v>
@@ -6950,7 +6947,7 @@
         <v>88</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>297</v>
@@ -6964,7 +6961,7 @@
         <v>89</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>298</v>
@@ -6978,7 +6975,7 @@
         <v>90</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>298</v>
@@ -7000,7 +6997,7 @@
         <v>92</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>298</v>
@@ -7030,7 +7027,7 @@
         <v>95</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>297</v>
@@ -7044,7 +7041,7 @@
         <v>96</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>300</v>
@@ -7058,7 +7055,7 @@
         <v>97</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>298</v>
@@ -7072,7 +7069,7 @@
         <v>98</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>299</v>
@@ -7094,7 +7091,7 @@
         <v>100</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>297</v>
@@ -7116,7 +7113,7 @@
         <v>102</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>298</v>
@@ -7138,7 +7135,7 @@
         <v>104</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>300</v>
@@ -7152,7 +7149,7 @@
         <v>105</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>297</v>
@@ -7166,7 +7163,7 @@
         <v>106</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>298</v>
@@ -7188,7 +7185,7 @@
         <v>108</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>297</v>
@@ -7210,7 +7207,7 @@
         <v>110</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>299</v>
@@ -7328,7 +7325,7 @@
         <v>164</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>301</v>
@@ -7342,7 +7339,7 @@
         <v>33</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C93" s="11" t="s">
         <v>302</v>
@@ -7370,7 +7367,7 @@
         <v>32</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C95" s="12" t="s">
         <v>304</v>
@@ -7384,7 +7381,7 @@
         <v>4</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C96" s="12" t="s">
         <v>305</v>
@@ -7398,7 +7395,7 @@
         <v>5</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>306</v>
@@ -7412,7 +7409,7 @@
         <v>6</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C98" s="10" t="s">
         <v>307</v>
@@ -7426,7 +7423,7 @@
         <v>7</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C99" s="9" t="s">
         <v>302</v>
@@ -7440,7 +7437,7 @@
         <v>8</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C100" s="13" t="s">
         <v>301</v>
@@ -7454,7 +7451,7 @@
         <v>9</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C101" s="12" t="s">
         <v>308</v>
@@ -7468,7 +7465,7 @@
         <v>10</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C102" s="13" t="s">
         <v>309</v>
@@ -7482,7 +7479,7 @@
         <v>11</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C103" s="13" t="s">
         <v>310</v>
@@ -7496,7 +7493,7 @@
         <v>12</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C104" s="15" t="s">
         <v>302</v>
@@ -7510,7 +7507,7 @@
         <v>13</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C105" s="15" t="s">
         <v>311</v>
@@ -7524,7 +7521,7 @@
         <v>14</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C106" s="15" t="s">
         <v>312</v>
@@ -7538,7 +7535,7 @@
         <v>15</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C107" s="15" t="s">
         <v>313</v>
@@ -7552,7 +7549,7 @@
         <v>16</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C108" s="16" t="s">
         <v>314</v>
@@ -7580,7 +7577,7 @@
         <v>17</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C110" s="16" t="s">
         <v>316</v>
@@ -7594,7 +7591,7 @@
         <v>18</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C111" s="19" t="s">
         <v>317</v>
@@ -7622,7 +7619,7 @@
         <v>18</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C113" s="19" t="s">
         <v>318</v>
@@ -7636,7 +7633,7 @@
         <v>19</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C114" s="17" t="s">
         <v>319</v>
@@ -7650,7 +7647,7 @@
         <v>20</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C115" s="17" t="s">
         <v>314</v>
@@ -7664,7 +7661,7 @@
         <v>21</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C116" s="26" t="s">
         <v>320</v>
@@ -7678,7 +7675,7 @@
         <v>22</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C117" s="26" t="s">
         <v>321</v>
@@ -7692,7 +7689,7 @@
         <v>23</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C118" s="9" t="s">
         <v>302</v>
@@ -7706,7 +7703,7 @@
         <v>24</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C119" s="18" t="s">
         <v>322</v>
@@ -7720,7 +7717,7 @@
         <v>25</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C120" s="18" t="s">
         <v>323</v>
@@ -7734,7 +7731,7 @@
         <v>26</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C121" s="20" t="s">
         <v>324</v>
@@ -7762,7 +7759,7 @@
         <v>26</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C123" s="39" t="s">
         <v>326</v>
@@ -7776,7 +7773,7 @@
         <v>27</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C124" s="40" t="s">
         <v>327</v>
@@ -7804,7 +7801,7 @@
         <v>28</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C126" s="44" t="s">
         <v>329</v>
@@ -7818,7 +7815,7 @@
         <v>29</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C127" s="45" t="s">
         <v>330</v>
@@ -7846,7 +7843,7 @@
         <v>30</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C129" s="23" t="s">
         <v>332</v>
@@ -7860,7 +7857,7 @@
         <v>31</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C130" s="23" t="s">
         <v>333</v>
@@ -7874,7 +7871,7 @@
         <v>128</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C131" s="23" t="s">
         <v>334</v>
@@ -7888,7 +7885,7 @@
         <v>129</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C132" s="23" t="s">
         <v>335</v>
@@ -7902,7 +7899,7 @@
         <v>130</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C133" s="35" t="s">
         <v>324</v>
@@ -7930,7 +7927,7 @@
         <v>131</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C135" s="36" t="s">
         <v>331</v>
@@ -7958,7 +7955,7 @@
         <v>132</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C137" s="25" t="s">
         <v>338</v>
@@ -7972,7 +7969,7 @@
         <v>133</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C138" s="25" t="s">
         <v>339</v>
@@ -7986,7 +7983,7 @@
         <v>134</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C139" s="28" t="s">
         <v>340</v>
@@ -8000,7 +7997,7 @@
         <v>135</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C140" s="28" t="s">
         <v>341</v>
@@ -8014,7 +8011,7 @@
         <v>136</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C141" s="28" t="s">
         <v>342</v>
@@ -8028,7 +8025,7 @@
         <v>137</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C142" s="33" t="s">
         <v>343</v>
@@ -8056,7 +8053,7 @@
         <v>138</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C144" s="47" t="s">
         <v>345</v>
@@ -8070,7 +8067,7 @@
         <v>139</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C145" s="32" t="s">
         <v>346</v>
@@ -8084,7 +8081,7 @@
         <v>140</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C146" s="32" t="s">
         <v>347</v>
@@ -8098,7 +8095,7 @@
         <v>141</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C147" s="33" t="s">
         <v>348</v>
@@ -8126,7 +8123,7 @@
         <v>142</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C149" s="33" t="s">
         <v>350</v>
@@ -8154,7 +8151,7 @@
         <v>143</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C151" s="33" t="s">
         <v>352</v>
@@ -8168,7 +8165,7 @@
         <v>144</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C152" s="38" t="s">
         <v>353</v>
@@ -8182,7 +8179,7 @@
         <v>145</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C153" s="38" t="s">
         <v>354</v>
@@ -8196,7 +8193,7 @@
         <v>146</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C154" s="42" t="s">
         <v>355</v>
@@ -8210,7 +8207,7 @@
         <v>147</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C155" s="42" t="s">
         <v>356</v>
@@ -8224,7 +8221,7 @@
         <v>148</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C156" s="42" t="s">
         <v>357</v>
@@ -8238,7 +8235,7 @@
         <v>149</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C157" s="50" t="s">
         <v>358</v>
@@ -8252,7 +8249,7 @@
         <v>150</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C158" s="50" t="s">
         <v>359</v>
@@ -8266,7 +8263,7 @@
         <v>151</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C159" s="43" t="s">
         <v>360</v>
@@ -8280,7 +8277,7 @@
         <v>152</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C160" s="38" t="s">
         <v>353</v>
@@ -8294,7 +8291,7 @@
         <v>153</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C161" s="50" t="s">
         <v>361</v>
@@ -8308,7 +8305,7 @@
         <v>154</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C162" s="43" t="s">
         <v>362</v>
@@ -8322,7 +8319,7 @@
         <v>155</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C163" s="50" t="s">
         <v>363</v>
@@ -8336,7 +8333,7 @@
         <v>156</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C164" s="18" t="s">
         <v>322</v>
@@ -8350,7 +8347,7 @@
         <v>157</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C165" s="25" t="s">
         <v>338</v>
@@ -8364,7 +8361,7 @@
         <v>158</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C166" s="17" t="s">
         <v>319</v>
@@ -8378,7 +8375,7 @@
         <v>239</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C167" s="32" t="s">
         <v>346</v>
@@ -8392,7 +8389,7 @@
         <v>240</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C168" s="32" t="s">
         <v>347</v>
@@ -8406,7 +8403,7 @@
         <v>241</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C169" s="33" t="s">
         <v>348</v>
@@ -8420,9 +8417,9 @@
         <v>242</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C170" s="68" t="s">
+        <v>367</v>
+      </c>
+      <c r="C170" s="67" t="s">
         <v>364</v>
       </c>
       <c r="D170" s="57" t="s">
@@ -8434,7 +8431,7 @@
         <v>243</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C171" s="15" t="s">
         <v>312</v>
@@ -8448,7 +8445,7 @@
         <v>244</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>298</v>
@@ -8462,7 +8459,7 @@
         <v>245</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C173" s="33" t="s">
         <v>348</v>
@@ -8476,7 +8473,7 @@
         <v>246</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C174" s="32" t="s">
         <v>347</v>
@@ -8490,7 +8487,7 @@
         <v>247</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C175" s="51" t="s">
         <v>326</v>
@@ -8501,26 +8498,26 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C176" s="69" t="s">
+        <v>367</v>
+      </c>
+      <c r="C176" s="68" t="s">
         <v>364</v>
       </c>
-      <c r="D176" s="71" t="s">
+      <c r="D176" s="70" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="C177" s="70" t="s">
+        <v>378</v>
+      </c>
+      <c r="C177" s="69" t="s">
         <v>342</v>
       </c>
       <c r="D177" s="56" t="s">
@@ -8529,24 +8526,24 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="C178" s="72" t="s">
-        <v>380</v>
-      </c>
-      <c r="D178" s="73" t="s">
+        <v>388</v>
+      </c>
+      <c r="C178" s="71" t="s">
+        <v>379</v>
+      </c>
+      <c r="D178" s="72" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C179" s="40" t="s">
         <v>327</v>
@@ -8557,10 +8554,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C180" s="44" t="s">
         <v>329</v>
@@ -8571,10 +8568,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C181" s="45" t="s">
         <v>330</v>
@@ -8585,10 +8582,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C182" s="28" t="s">
         <v>340</v>
@@ -8599,10 +8596,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C183" s="51" t="s">
         <v>325</v>
@@ -8616,7 +8613,7 @@
         <v>270</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C184" s="19" t="s">
         <v>318</v>
@@ -8630,7 +8627,7 @@
         <v>273</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C185" s="15" t="s">
         <v>312</v>
@@ -8644,7 +8641,7 @@
         <v>275</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C186" s="38" t="s">
         <v>353</v>
@@ -8658,17 +8655,21 @@
         <v>276</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C187" s="15"/>
-      <c r="D187" s="59"/>
+        <v>367</v>
+      </c>
+      <c r="C187" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="D187" s="60" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C188" s="33"/>
       <c r="D188" s="60"/>
@@ -8678,41 +8679,33 @@
         <v>280</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C189" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="D189" s="74" t="s">
-        <v>393</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="C189" s="15"/>
+      <c r="D189" s="73"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C190" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="D190" s="74" t="s">
-        <v>394</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="C190" s="15"/>
+      <c r="D190" s="73"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C191" s="33" t="s">
-        <v>349</v>
-      </c>
-      <c r="D191" s="60" t="s">
-        <v>277</v>
+        <v>367</v>
+      </c>
+      <c r="C191" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="D191" s="73" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -8720,13 +8713,13 @@
         <v>285</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C192" s="38" t="s">
-        <v>354</v>
-      </c>
-      <c r="D192" s="60" t="s">
-        <v>279</v>
+        <v>367</v>
+      </c>
+      <c r="C192" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="D192" s="73" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -8734,13 +8727,13 @@
         <v>287</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C193" s="61" t="s">
-        <v>365</v>
+        <v>367</v>
+      </c>
+      <c r="C193" s="33" t="s">
+        <v>349</v>
       </c>
       <c r="D193" s="60" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -8748,13 +8741,13 @@
         <v>288</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C194" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="D194" s="62" t="s">
-        <v>290</v>
+        <v>367</v>
+      </c>
+      <c r="C194" s="74" t="s">
+        <v>300</v>
+      </c>
+      <c r="D194" s="60" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -8762,13 +8755,13 @@
         <v>291</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C195" s="63" t="s">
-        <v>333</v>
-      </c>
-      <c r="D195" s="62" t="s">
-        <v>284</v>
+        <v>367</v>
+      </c>
+      <c r="C195" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="D195" s="61" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -8776,13 +8769,13 @@
         <v>294</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C196" s="63" t="s">
-        <v>334</v>
-      </c>
-      <c r="D196" s="62" t="s">
-        <v>286</v>
+        <v>367</v>
+      </c>
+      <c r="C196" s="62" t="s">
+        <v>333</v>
+      </c>
+      <c r="D196" s="61" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -8790,102 +8783,111 @@
         <v>296</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C197" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="D197" s="62" t="s">
-        <v>289</v>
+        <v>367</v>
+      </c>
+      <c r="C197" s="62" t="s">
+        <v>334</v>
+      </c>
+      <c r="D197" s="61" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C198" s="64" t="s">
-        <v>336</v>
-      </c>
-      <c r="D198" s="64" t="s">
-        <v>292</v>
+        <v>367</v>
+      </c>
+      <c r="C198" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="D198" s="61" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C199" s="64" t="s">
-        <v>366</v>
-      </c>
-      <c r="D199" s="64" t="s">
-        <v>293</v>
+        <v>367</v>
+      </c>
+      <c r="C199" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="D199" s="63" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C200" s="66" t="s">
-        <v>367</v>
-      </c>
-      <c r="D200" s="64" t="s">
-        <v>295</v>
+        <v>367</v>
+      </c>
+      <c r="C200" s="63" t="s">
+        <v>365</v>
+      </c>
+      <c r="D200" s="63" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C201" s="67" t="s">
-        <v>371</v>
-      </c>
-      <c r="D201" s="66" t="s">
-        <v>374</v>
+        <v>367</v>
+      </c>
+      <c r="C201" s="65" t="s">
+        <v>366</v>
+      </c>
+      <c r="D201" s="63" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C202" s="67" t="s">
+        <v>367</v>
+      </c>
+      <c r="C202" s="66" t="s">
+        <v>370</v>
+      </c>
+      <c r="D202" s="65" t="s">
         <v>373</v>
-      </c>
-      <c r="D202" s="66" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C203" s="67" t="s">
-        <v>377</v>
-      </c>
-      <c r="D203" s="66" t="s">
-        <v>376</v>
+        <v>367</v>
+      </c>
+      <c r="C203" s="66" t="s">
+        <v>372</v>
+      </c>
+      <c r="D203" s="65" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C204" s="66" t="s">
+        <v>376</v>
+      </c>
+      <c r="D204" s="65" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
